--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1211130.10480001</v>
+        <v>1216011.301674949</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4061772.687896862</v>
+        <v>4061772.687896863</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12142359.78685446</v>
+        <v>12142359.78685447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7037264.341272641</v>
+        <v>7037264.34127264</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>29.23291020582864</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>112.8059503681663</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>83.57304016233765</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>128.0721507358836</v>
+        <v>64.14179229519175</v>
       </c>
       <c r="F12" t="n">
         <v>128.0721507358836</v>
@@ -1467,7 +1467,7 @@
         <v>106.7817552442088</v>
       </c>
       <c r="I12" t="n">
-        <v>6.024195123957478</v>
+        <v>69.95455356464927</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>52.91719181356267</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="I13" t="n">
         <v>128.0721507358836</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.8887585546036</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.52001509067868</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>66.28593527748755</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>112.8059503681663</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.23291020582864</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>83.57304016233765</v>
       </c>
       <c r="S14" t="n">
         <v>128.0721507358836</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>64.14179229519181</v>
       </c>
       <c r="F15" t="n">
         <v>128.0721507358836</v>
@@ -1701,10 +1701,10 @@
         <v>128.0721507358836</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>106.7817552442088</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>69.95455356464927</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>112.8059503681662</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6.39717672288392</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.8887585546036</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,22 +1807,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>46.52001509067868</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>112.8059503681662</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>112.8059503681662</v>
       </c>
       <c r="T17" t="n">
         <v>128.0721507358836</v>
@@ -1904,7 +1904,7 @@
         <v>128.0721507358836</v>
       </c>
       <c r="W17" t="n">
-        <v>112.8059503681663</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1162457425669</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>106.7817552442088</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>69.95455356464927</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>128.0721507358836</v>
       </c>
       <c r="T18" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>47.70825307965774</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.8887585546036</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>128.0721507358836</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>112.8059503681663</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>52.91719181356265</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.24734057917</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>116.8276816737386</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>83.57304016233765</v>
       </c>
       <c r="S20" t="n">
         <v>184.9702119079427</v>
@@ -2135,19 +2135,19 @@
         <v>218.4758494769445</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2612211529593</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>259.1846500309914</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>20.0395714964823</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>80.16977092419256</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.778830019595</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>65.09769728850851</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.1943550809775</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.8886432343709</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9042316110001</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.293206734738</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>210.7291958410794</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>205.1673919063169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.24734057917</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>169.7876991966149</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>83.57304016233765</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>184.9702119079427</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.4758494769445</v>
+        <v>2.39943745240294</v>
       </c>
       <c r="U23" t="n">
         <v>251.2612211529593</v>
@@ -2378,13 +2378,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.42250202621414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>65.09769728850851</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>161.1943550809775</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.8886432343709</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>98.49873754284376</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>131.786010303384</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.0614813263855</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.52001509067868</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>156.0069435121837</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>210.4994042392261</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>128.4293514491565</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>328.6662182453155</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>169.7876991966149</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>9.696619654112864</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>184.9702119079427</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.4758494769445</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2612211529593</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2634,19 +2634,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>50.41541729392023</v>
+        <v>136.778830019595</v>
       </c>
       <c r="H27" t="n">
         <v>106.7817552442088</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>65.09769728850851</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>161.1943550809775</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.8886432343709</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9042316110001</v>
+        <v>98.49873754284376</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>244.8847592519891</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>205.1673919063169</v>
       </c>
     </row>
     <row r="29">
@@ -2792,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>41.17545325827369</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.24734057917</v>
@@ -2810,7 +2810,7 @@
         <v>328.6662182453155</v>
       </c>
       <c r="I29" t="n">
-        <v>169.7876991966149</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>184.9702119079427</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.4758494769445</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2612211529593</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.261968203093495</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2874,10 +2874,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>54.44322711446251</v>
       </c>
       <c r="E30" t="n">
-        <v>64.64324200522515</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.8887585546036</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>215.7662703869161</v>
       </c>
       <c r="T31" t="n">
-        <v>142.0842083564319</v>
+        <v>225.9228173909699</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>55.33331479793109</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>142.9015734040123</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.24734057917</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>169.7876991966149</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>67.22541690957036</v>
+        <v>83.57304016233765</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>184.9702119079427</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2612211529593</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.778830019595</v>
+        <v>116.1550911956474</v>
       </c>
       <c r="H33" t="n">
-        <v>106.7817552442088</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>69.95455356464927</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>65.09769728850851</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>161.1943550809775</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9042316110001</v>
       </c>
       <c r="V33" t="n">
-        <v>105.0072723227831</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.517564626322</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>158.0180851617145</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.239931689152777</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>156.0069435121837</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>215.7662703869161</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>125.2491886767173</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>412.3747078278224</v>
       </c>
       <c r="H35" t="n">
-        <v>175.1487497950368</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.4758494769445</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2612211529593</v>
+        <v>234.8649046215998</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>68.9450741400578</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.778830019595</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>106.7817552442088</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>69.95455356464927</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>161.1943550809775</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.8886432343709</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>206.8058775151751</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3424,16 +3424,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>111.1909281250945</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>8.81329970725241</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.52001509067868</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>215.7662703869161</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.9228173909699</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>83.57304016233765</v>
       </c>
       <c r="S38" t="n">
-        <v>12.79495320686455</v>
+        <v>184.9702119079427</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.4758494769445</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2612211529593</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>125.4500317450837</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>54.30758763222937</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.778830019595</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>37.70167947973761</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>65.09769728850851</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>161.1943550809775</v>
       </c>
       <c r="T39" t="n">
         <v>197.8886432343709</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9042316110001</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>104.0659260881521</v>
       </c>
       <c r="C40" t="n">
-        <v>98.60576904178502</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>83.57304016233765</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>184.9702119079427</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.4758494769445</v>
       </c>
       <c r="U41" t="n">
         <v>251.2612211529593</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>185.0702162504806</v>
       </c>
       <c r="Y41" t="n">
-        <v>231.3447108722965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,13 +3828,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>133.5421242951139</v>
       </c>
       <c r="G42" t="n">
         <v>136.778830019595</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>106.7817552442088</v>
       </c>
       <c r="I42" t="n">
         <v>69.95455356464927</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>161.1943550809775</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.8886432343709</v>
@@ -3876,16 +3876,16 @@
         <v>225.9042316110001</v>
       </c>
       <c r="V42" t="n">
-        <v>152.7810984368924</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.9019560586808</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>158.0180851617145</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>141.2136028008182</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.8887585546036</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.293206734738</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>210.7291958410792</v>
       </c>
     </row>
     <row r="44">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.77396418597033</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="C11" t="n">
-        <v>39.77396418597033</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="D11" t="n">
-        <v>10.24577205887069</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="E11" t="n">
-        <v>10.24577205887069</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="F11" t="n">
-        <v>10.24577205887069</v>
+        <v>398.3431985312452</v>
       </c>
       <c r="G11" t="n">
-        <v>10.24577205887069</v>
+        <v>268.9773897071203</v>
       </c>
       <c r="H11" t="n">
-        <v>10.24577205887069</v>
+        <v>139.6115808829955</v>
       </c>
       <c r="I11" t="n">
         <v>10.24577205887069</v>
@@ -5045,46 +5045,46 @@
         <v>213.8871455632507</v>
       </c>
       <c r="L11" t="n">
-        <v>282.5566800274046</v>
+        <v>340.6785747917754</v>
       </c>
       <c r="M11" t="n">
-        <v>409.3481092559293</v>
+        <v>409.3481092559292</v>
       </c>
       <c r="N11" t="n">
-        <v>409.3481092559293</v>
+        <v>409.3481092559292</v>
       </c>
       <c r="O11" t="n">
-        <v>409.3481092559293</v>
+        <v>409.3481092559292</v>
       </c>
       <c r="P11" t="n">
-        <v>409.3481092559293</v>
+        <v>409.3481092559292</v>
       </c>
       <c r="Q11" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="R11" t="n">
-        <v>427.8713906583449</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="S11" t="n">
-        <v>298.50558183422</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="T11" t="n">
-        <v>169.1397730100952</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="U11" t="n">
-        <v>39.77396418597033</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="V11" t="n">
-        <v>39.77396418597033</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="W11" t="n">
-        <v>39.77396418597033</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="X11" t="n">
-        <v>39.77396418597033</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.77396418597033</v>
+        <v>512.2886029435343</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="C12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="D12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="E12" t="n">
-        <v>382.9227941194096</v>
+        <v>447.4989137564719</v>
       </c>
       <c r="F12" t="n">
-        <v>253.5569852952847</v>
+        <v>318.1331049323471</v>
       </c>
       <c r="G12" t="n">
-        <v>124.1911764711598</v>
+        <v>188.7672961082223</v>
       </c>
       <c r="H12" t="n">
-        <v>16.33081763862572</v>
+        <v>80.90693727568814</v>
       </c>
       <c r="I12" t="n">
         <v>10.24577205887069</v>
@@ -5121,49 +5121,49 @@
         <v>62.32369271174291</v>
       </c>
       <c r="K12" t="n">
-        <v>189.1151219402677</v>
+        <v>62.32369271174291</v>
       </c>
       <c r="L12" t="n">
-        <v>189.1151219402677</v>
+        <v>62.32369271174291</v>
       </c>
       <c r="M12" t="n">
+        <v>63.25905405792507</v>
+      </c>
+      <c r="N12" t="n">
         <v>190.0504832864498</v>
       </c>
-      <c r="N12" t="n">
-        <v>258.7057444864849</v>
-      </c>
       <c r="O12" t="n">
-        <v>258.7057444864849</v>
+        <v>316.8419125149746</v>
       </c>
       <c r="P12" t="n">
-        <v>385.4971737150097</v>
+        <v>443.6333417434993</v>
       </c>
       <c r="Q12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="R12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="S12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="T12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="U12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="V12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="W12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="X12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="Y12" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.6115808829956</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="C13" t="n">
-        <v>139.6115808829956</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="D13" t="n">
-        <v>139.6115808829956</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="E13" t="n">
-        <v>139.6115808829956</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="F13" t="n">
-        <v>139.6115808829956</v>
+        <v>458.8368940409458</v>
       </c>
       <c r="G13" t="n">
-        <v>139.6115808829956</v>
+        <v>329.4710852168209</v>
       </c>
       <c r="H13" t="n">
-        <v>139.6115808829956</v>
+        <v>200.1052763926961</v>
       </c>
       <c r="I13" t="n">
-        <v>10.24577205887069</v>
+        <v>70.7394675685713</v>
       </c>
       <c r="J13" t="n">
         <v>10.24577205887069</v>
       </c>
       <c r="K13" t="n">
-        <v>42.65113764161717</v>
+        <v>42.6511376416172</v>
       </c>
       <c r="L13" t="n">
         <v>139.6452834136118</v>
       </c>
       <c r="M13" t="n">
-        <v>252.3011336419419</v>
+        <v>252.3011336419418</v>
       </c>
       <c r="N13" t="n">
-        <v>367.7128959719015</v>
+        <v>367.7128959719014</v>
       </c>
       <c r="O13" t="n">
-        <v>458.2980429041624</v>
+        <v>458.2980429041623</v>
       </c>
       <c r="P13" t="n">
-        <v>512.2886029435344</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="Q13" t="n">
-        <v>465.2986887105257</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="R13" t="n">
-        <v>335.9328798864008</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="S13" t="n">
-        <v>206.5670710622759</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="T13" t="n">
-        <v>139.6115808829956</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="U13" t="n">
-        <v>139.6115808829956</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="V13" t="n">
-        <v>139.6115808829956</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="W13" t="n">
-        <v>139.6115808829956</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="X13" t="n">
-        <v>139.6115808829956</v>
+        <v>512.2886029435343</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.6115808829956</v>
+        <v>512.2886029435343</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>124.1911764711598</v>
+        <v>39.77396418597033</v>
       </c>
       <c r="C14" t="n">
-        <v>124.1911764711598</v>
+        <v>39.77396418597033</v>
       </c>
       <c r="D14" t="n">
-        <v>124.1911764711598</v>
+        <v>39.77396418597033</v>
       </c>
       <c r="E14" t="n">
-        <v>124.1911764711598</v>
+        <v>39.77396418597033</v>
       </c>
       <c r="F14" t="n">
-        <v>124.1911764711598</v>
+        <v>39.77396418597033</v>
       </c>
       <c r="G14" t="n">
-        <v>124.1911764711598</v>
+        <v>39.77396418597033</v>
       </c>
       <c r="H14" t="n">
-        <v>10.24577205887069</v>
+        <v>39.77396418597033</v>
       </c>
       <c r="I14" t="n">
         <v>10.24577205887069</v>
@@ -5279,19 +5279,19 @@
         <v>87.09571633472592</v>
       </c>
       <c r="K14" t="n">
-        <v>213.8871455632507</v>
+        <v>87.09571633472592</v>
       </c>
       <c r="L14" t="n">
-        <v>213.8871455632507</v>
+        <v>87.09571633472592</v>
       </c>
       <c r="M14" t="n">
-        <v>213.8871455632507</v>
+        <v>87.09571633472592</v>
       </c>
       <c r="N14" t="n">
-        <v>340.6785747917755</v>
+        <v>155.7652507988798</v>
       </c>
       <c r="O14" t="n">
-        <v>409.3481092559293</v>
+        <v>282.5566800274046</v>
       </c>
       <c r="P14" t="n">
         <v>409.3481092559293</v>
@@ -5300,28 +5300,28 @@
         <v>512.2886029435344</v>
       </c>
       <c r="R14" t="n">
-        <v>512.2886029435344</v>
+        <v>427.8713906583449</v>
       </c>
       <c r="S14" t="n">
-        <v>382.9227941194096</v>
+        <v>298.50558183422</v>
       </c>
       <c r="T14" t="n">
-        <v>253.5569852952847</v>
+        <v>169.1397730100952</v>
       </c>
       <c r="U14" t="n">
-        <v>124.1911764711598</v>
+        <v>39.77396418597033</v>
       </c>
       <c r="V14" t="n">
-        <v>124.1911764711598</v>
+        <v>39.77396418597033</v>
       </c>
       <c r="W14" t="n">
-        <v>124.1911764711598</v>
+        <v>39.77396418597033</v>
       </c>
       <c r="X14" t="n">
-        <v>124.1911764711598</v>
+        <v>39.77396418597033</v>
       </c>
       <c r="Y14" t="n">
-        <v>124.1911764711598</v>
+        <v>39.77396418597033</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>268.9773897071204</v>
+        <v>512.2886029435344</v>
       </c>
       <c r="C15" t="n">
-        <v>268.9773897071204</v>
+        <v>512.2886029435344</v>
       </c>
       <c r="D15" t="n">
-        <v>268.9773897071204</v>
+        <v>512.2886029435344</v>
       </c>
       <c r="E15" t="n">
-        <v>268.9773897071204</v>
+        <v>447.498913756472</v>
       </c>
       <c r="F15" t="n">
-        <v>139.6115808829956</v>
+        <v>318.1331049323471</v>
       </c>
       <c r="G15" t="n">
-        <v>10.24577205887069</v>
+        <v>188.7672961082223</v>
       </c>
       <c r="H15" t="n">
-        <v>10.24577205887069</v>
+        <v>80.90693727568814</v>
       </c>
       <c r="I15" t="n">
         <v>10.24577205887069</v>
@@ -5358,19 +5358,19 @@
         <v>62.32369271174291</v>
       </c>
       <c r="K15" t="n">
-        <v>189.1151219402677</v>
+        <v>62.32369271174291</v>
       </c>
       <c r="L15" t="n">
-        <v>189.1151219402677</v>
+        <v>116.5455527644517</v>
       </c>
       <c r="M15" t="n">
-        <v>190.0504832864498</v>
+        <v>243.3369819929765</v>
       </c>
       <c r="N15" t="n">
-        <v>316.8419125149746</v>
+        <v>258.7057444864849</v>
       </c>
       <c r="O15" t="n">
-        <v>443.6333417434994</v>
+        <v>385.4971737150097</v>
       </c>
       <c r="P15" t="n">
         <v>512.2886029435344</v>
@@ -5388,19 +5388,19 @@
         <v>512.2886029435344</v>
       </c>
       <c r="U15" t="n">
-        <v>398.3431985312453</v>
+        <v>512.2886029435344</v>
       </c>
       <c r="V15" t="n">
-        <v>398.3431985312453</v>
+        <v>512.2886029435344</v>
       </c>
       <c r="W15" t="n">
-        <v>398.3431985312453</v>
+        <v>512.2886029435344</v>
       </c>
       <c r="X15" t="n">
-        <v>398.3431985312453</v>
+        <v>512.2886029435344</v>
       </c>
       <c r="Y15" t="n">
-        <v>268.9773897071204</v>
+        <v>512.2886029435344</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.24577205887069</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="C16" t="n">
-        <v>10.24577205887069</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="D16" t="n">
-        <v>10.24577205887069</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="E16" t="n">
-        <v>10.24577205887069</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="F16" t="n">
-        <v>10.24577205887069</v>
+        <v>458.8368940409459</v>
       </c>
       <c r="G16" t="n">
-        <v>10.24577205887069</v>
+        <v>329.4710852168211</v>
       </c>
       <c r="H16" t="n">
-        <v>10.24577205887069</v>
+        <v>200.1052763926962</v>
       </c>
       <c r="I16" t="n">
-        <v>10.24577205887069</v>
+        <v>70.7394675685713</v>
       </c>
       <c r="J16" t="n">
         <v>10.24577205887069</v>
       </c>
       <c r="K16" t="n">
-        <v>42.65113764161714</v>
+        <v>42.6511376416172</v>
       </c>
       <c r="L16" t="n">
         <v>139.6452834136118</v>
@@ -5455,31 +5455,31 @@
         <v>512.2886029435344</v>
       </c>
       <c r="Q16" t="n">
-        <v>512.2886029435344</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="R16" t="n">
-        <v>512.2886029435344</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="S16" t="n">
-        <v>398.3431985312453</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="T16" t="n">
-        <v>268.9773897071204</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="U16" t="n">
-        <v>139.6115808829956</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="V16" t="n">
-        <v>10.24577205887069</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="W16" t="n">
-        <v>10.24577205887069</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="X16" t="n">
-        <v>10.24577205887069</v>
+        <v>465.2986887105257</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.24577205887069</v>
+        <v>465.2986887105257</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>10.24577205887069</v>
       </c>
       <c r="J17" t="n">
-        <v>10.24577205887069</v>
+        <v>87.09571633472592</v>
       </c>
       <c r="K17" t="n">
-        <v>137.0372012873955</v>
+        <v>213.8871455632507</v>
       </c>
       <c r="L17" t="n">
-        <v>137.0372012873955</v>
+        <v>213.8871455632507</v>
       </c>
       <c r="M17" t="n">
-        <v>137.0372012873955</v>
+        <v>258.7057444864849</v>
       </c>
       <c r="N17" t="n">
-        <v>155.7652507988798</v>
+        <v>258.7057444864849</v>
       </c>
       <c r="O17" t="n">
-        <v>282.5566800274046</v>
+        <v>385.4971737150097</v>
       </c>
       <c r="P17" t="n">
-        <v>409.3481092559293</v>
+        <v>512.2886029435344</v>
       </c>
       <c r="Q17" t="n">
         <v>512.2886029435344</v>
@@ -5540,16 +5540,16 @@
         <v>512.2886029435344</v>
       </c>
       <c r="S17" t="n">
-        <v>512.2886029435344</v>
+        <v>398.3431985312453</v>
       </c>
       <c r="T17" t="n">
-        <v>382.9227941194096</v>
+        <v>268.9773897071204</v>
       </c>
       <c r="U17" t="n">
-        <v>253.5569852952847</v>
+        <v>139.6115808829956</v>
       </c>
       <c r="V17" t="n">
-        <v>124.1911764711598</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="W17" t="n">
         <v>10.24577205887069</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.24577205887069</v>
+        <v>317.1675443330373</v>
       </c>
       <c r="C18" t="n">
-        <v>10.24577205887069</v>
+        <v>317.1675443330373</v>
       </c>
       <c r="D18" t="n">
-        <v>10.24577205887069</v>
+        <v>317.1675443330373</v>
       </c>
       <c r="E18" t="n">
-        <v>10.24577205887069</v>
+        <v>317.1675443330373</v>
       </c>
       <c r="F18" t="n">
-        <v>10.24577205887069</v>
+        <v>317.1675443330373</v>
       </c>
       <c r="G18" t="n">
-        <v>10.24577205887069</v>
+        <v>188.7672961082223</v>
       </c>
       <c r="H18" t="n">
-        <v>10.24577205887069</v>
+        <v>80.90693727568814</v>
       </c>
       <c r="I18" t="n">
         <v>10.24577205887069</v>
       </c>
       <c r="J18" t="n">
-        <v>62.32369271174291</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="K18" t="n">
-        <v>62.32369271174291</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="L18" t="n">
-        <v>62.32369271174291</v>
+        <v>131.9143152579602</v>
       </c>
       <c r="M18" t="n">
-        <v>63.25905405792507</v>
+        <v>258.7057444864849</v>
       </c>
       <c r="N18" t="n">
-        <v>131.9143152579602</v>
+        <v>385.4971737150097</v>
       </c>
       <c r="O18" t="n">
-        <v>258.7057444864849</v>
+        <v>512.2886029435344</v>
       </c>
       <c r="P18" t="n">
-        <v>385.4971737150097</v>
+        <v>512.2886029435344</v>
       </c>
       <c r="Q18" t="n">
         <v>512.2886029435344</v>
@@ -5622,22 +5622,22 @@
         <v>317.1675443330373</v>
       </c>
       <c r="T18" t="n">
-        <v>187.8017355089125</v>
+        <v>317.1675443330373</v>
       </c>
       <c r="U18" t="n">
-        <v>58.4359266847876</v>
+        <v>317.1675443330373</v>
       </c>
       <c r="V18" t="n">
-        <v>10.24577205887069</v>
+        <v>317.1675443330373</v>
       </c>
       <c r="W18" t="n">
-        <v>10.24577205887069</v>
+        <v>317.1675443330373</v>
       </c>
       <c r="X18" t="n">
-        <v>10.24577205887069</v>
+        <v>317.1675443330373</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.24577205887069</v>
+        <v>317.1675443330373</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.7394675685713</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="C19" t="n">
-        <v>70.7394675685713</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="D19" t="n">
-        <v>70.7394675685713</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="E19" t="n">
-        <v>70.7394675685713</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="F19" t="n">
-        <v>70.7394675685713</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="G19" t="n">
-        <v>70.7394675685713</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="H19" t="n">
-        <v>70.7394675685713</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="I19" t="n">
-        <v>70.7394675685713</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="J19" t="n">
         <v>10.24577205887069</v>
@@ -5704,19 +5704,19 @@
         <v>253.5569852952847</v>
       </c>
       <c r="U19" t="n">
-        <v>253.5569852952847</v>
+        <v>139.6115808829956</v>
       </c>
       <c r="V19" t="n">
-        <v>253.5569852952847</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="W19" t="n">
-        <v>253.5569852952847</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="X19" t="n">
-        <v>200.1052763926962</v>
+        <v>10.24577205887069</v>
       </c>
       <c r="Y19" t="n">
-        <v>200.1052763926962</v>
+        <v>10.24577205887069</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>990.6610698917834</v>
+        <v>823.1841704151158</v>
       </c>
       <c r="C20" t="n">
-        <v>990.6610698917834</v>
+        <v>454.2216534747041</v>
       </c>
       <c r="D20" t="n">
-        <v>990.6610698917834</v>
+        <v>454.2216534747041</v>
       </c>
       <c r="E20" t="n">
-        <v>990.6610698917834</v>
+        <v>454.2216534747041</v>
       </c>
       <c r="F20" t="n">
-        <v>579.6751651021759</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="G20" t="n">
-        <v>161.2435079514991</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="H20" t="n">
         <v>43.23574868509648</v>
@@ -5753,10 +5753,10 @@
         <v>120.0856929609517</v>
       </c>
       <c r="K20" t="n">
-        <v>356.0086423852007</v>
+        <v>356.0086423852005</v>
       </c>
       <c r="L20" t="n">
-        <v>700.9685504224345</v>
+        <v>700.9685504224343</v>
       </c>
       <c r="M20" t="n">
         <v>1101.409460245282</v>
@@ -5774,28 +5774,28 @@
         <v>2161.787434254824</v>
       </c>
       <c r="R20" t="n">
-        <v>2161.787434254824</v>
+        <v>2077.370221969634</v>
       </c>
       <c r="S20" t="n">
-        <v>1974.948836368013</v>
+        <v>1890.531624082823</v>
       </c>
       <c r="T20" t="n">
-        <v>1754.266160128675</v>
+        <v>1669.848947843485</v>
       </c>
       <c r="U20" t="n">
-        <v>1754.266160128675</v>
+        <v>1416.049734557668</v>
       </c>
       <c r="V20" t="n">
-        <v>1754.266160128675</v>
+        <v>1084.986847214097</v>
       </c>
       <c r="W20" t="n">
-        <v>1754.266160128675</v>
+        <v>823.1841704151158</v>
       </c>
       <c r="X20" t="n">
-        <v>1380.800401867595</v>
+        <v>823.1841704151158</v>
       </c>
       <c r="Y20" t="n">
-        <v>990.6610698917834</v>
+        <v>823.1841704151158</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.1347286932244</v>
+        <v>860.3847407679611</v>
       </c>
       <c r="C21" t="n">
-        <v>600.1347286932244</v>
+        <v>685.9317114868342</v>
       </c>
       <c r="D21" t="n">
-        <v>600.1347286932244</v>
+        <v>665.689720076246</v>
       </c>
       <c r="E21" t="n">
-        <v>440.8972736877689</v>
+        <v>506.4522650707904</v>
       </c>
       <c r="F21" t="n">
         <v>359.9177070976754</v>
@@ -5829,52 +5829,52 @@
         <v>43.23574868509648</v>
       </c>
       <c r="J21" t="n">
-        <v>43.23574868509648</v>
+        <v>95.3136693379687</v>
       </c>
       <c r="K21" t="n">
-        <v>258.8660530448253</v>
+        <v>187.3814294468841</v>
       </c>
       <c r="L21" t="n">
-        <v>610.2120039756493</v>
+        <v>538.7273803777081</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.195378434331</v>
+        <v>1000.71075483639</v>
       </c>
       <c r="N21" t="n">
-        <v>1562.113091527958</v>
+        <v>1490.628467930017</v>
       </c>
       <c r="O21" t="n">
-        <v>1731.636225094545</v>
+        <v>1872.391783965379</v>
       </c>
       <c r="P21" t="n">
-        <v>2021.03187538399</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="Q21" t="n">
         <v>2161.787434254824</v>
       </c>
       <c r="R21" t="n">
-        <v>2096.032184468452</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="S21" t="n">
-        <v>1933.209603578576</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="T21" t="n">
-        <v>1733.322085160019</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="U21" t="n">
-        <v>1505.135992623655</v>
+        <v>1933.60134171846</v>
       </c>
       <c r="V21" t="n">
-        <v>1269.983884391913</v>
+        <v>1698.449233486718</v>
       </c>
       <c r="W21" t="n">
-        <v>1015.746527663711</v>
+        <v>1444.211876758516</v>
       </c>
       <c r="X21" t="n">
-        <v>807.8950274581782</v>
+        <v>1236.360376552983</v>
       </c>
       <c r="Y21" t="n">
-        <v>600.1347286932244</v>
+        <v>1028.600077788029</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1954.547644450463</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="C22" t="n">
-        <v>1954.547644450463</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="D22" t="n">
-        <v>1954.547644450463</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="E22" t="n">
-        <v>1806.63455086807</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="F22" t="n">
         <v>1659.74460337016</v>
@@ -5941,19 +5941,19 @@
         <v>2161.787434254824</v>
       </c>
       <c r="U22" t="n">
-        <v>2161.787434254824</v>
+        <v>1872.602376947008</v>
       </c>
       <c r="V22" t="n">
-        <v>2161.787434254824</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="W22" t="n">
-        <v>2161.787434254824</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="X22" t="n">
-        <v>2161.787434254824</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="Y22" t="n">
-        <v>1954.547644450463</v>
+        <v>1659.74460337016</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1044.156037086608</v>
+        <v>461.6674058357733</v>
       </c>
       <c r="C23" t="n">
-        <v>1044.156037086608</v>
+        <v>461.6674058357733</v>
       </c>
       <c r="D23" t="n">
-        <v>1044.156037086608</v>
+        <v>461.6674058357733</v>
       </c>
       <c r="E23" t="n">
-        <v>1044.156037086608</v>
+        <v>461.6674058357733</v>
       </c>
       <c r="F23" t="n">
-        <v>633.1701322970005</v>
+        <v>461.6674058357733</v>
       </c>
       <c r="G23" t="n">
-        <v>214.7384751463237</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="H23" t="n">
-        <v>214.7384751463237</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="I23" t="n">
         <v>43.23574868509648</v>
@@ -5990,10 +5990,10 @@
         <v>120.0856929609517</v>
       </c>
       <c r="K23" t="n">
-        <v>356.0086423852007</v>
+        <v>356.0086423852006</v>
       </c>
       <c r="L23" t="n">
-        <v>700.9685504224345</v>
+        <v>700.9685504224344</v>
       </c>
       <c r="M23" t="n">
         <v>1101.409460245282</v>
@@ -6011,28 +6011,28 @@
         <v>2161.787434254824</v>
       </c>
       <c r="R23" t="n">
-        <v>2077.370221969634</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="S23" t="n">
-        <v>1890.531624082823</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="T23" t="n">
-        <v>1669.848947843485</v>
+        <v>2159.363760060477</v>
       </c>
       <c r="U23" t="n">
-        <v>1416.049734557668</v>
+        <v>1905.56454677466</v>
       </c>
       <c r="V23" t="n">
-        <v>1084.986847214097</v>
+        <v>1574.501659431089</v>
       </c>
       <c r="W23" t="n">
-        <v>1084.986847214097</v>
+        <v>1221.733004160975</v>
       </c>
       <c r="X23" t="n">
-        <v>1084.986847214097</v>
+        <v>848.2672458998951</v>
       </c>
       <c r="Y23" t="n">
-        <v>1044.156037086608</v>
+        <v>848.2672458998951</v>
       </c>
     </row>
     <row r="24">
@@ -6066,46 +6066,46 @@
         <v>43.23574868509648</v>
       </c>
       <c r="J24" t="n">
-        <v>43.23574868509648</v>
+        <v>95.3136693379687</v>
       </c>
       <c r="K24" t="n">
-        <v>46.62587057605015</v>
+        <v>95.3136693379687</v>
       </c>
       <c r="L24" t="n">
-        <v>397.9718215068741</v>
+        <v>446.6596202687927</v>
       </c>
       <c r="M24" t="n">
-        <v>859.9551959655562</v>
+        <v>908.6429947274747</v>
       </c>
       <c r="N24" t="n">
-        <v>1349.872909059183</v>
+        <v>1398.560707821101</v>
       </c>
       <c r="O24" t="n">
-        <v>1731.636225094545</v>
+        <v>1780.324023856464</v>
       </c>
       <c r="P24" t="n">
-        <v>2021.03187538399</v>
+        <v>2069.719674145908</v>
       </c>
       <c r="Q24" t="n">
         <v>2161.787434254824</v>
       </c>
       <c r="R24" t="n">
-        <v>2096.032184468452</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="S24" t="n">
-        <v>1933.209603578576</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="T24" t="n">
-        <v>1733.322085160019</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="U24" t="n">
-        <v>1733.322085160019</v>
+        <v>2062.293759969123</v>
       </c>
       <c r="V24" t="n">
-        <v>1498.169976928276</v>
+        <v>1827.14165173738</v>
       </c>
       <c r="W24" t="n">
-        <v>1498.169976928276</v>
+        <v>1572.904295009179</v>
       </c>
       <c r="X24" t="n">
         <v>1365.052794803646</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>340.7058941123234</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="C25" t="n">
-        <v>340.7058941123234</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="D25" t="n">
-        <v>191.1488422674896</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="E25" t="n">
         <v>43.23574868509648</v>
@@ -6166,31 +6166,31 @@
         <v>545.2785795697603</v>
       </c>
       <c r="Q25" t="n">
-        <v>498.2886653367515</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="R25" t="n">
-        <v>340.7058941123234</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="S25" t="n">
-        <v>340.7058941123234</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="T25" t="n">
-        <v>340.7058941123234</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="U25" t="n">
-        <v>340.7058941123234</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="V25" t="n">
-        <v>340.7058941123234</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="W25" t="n">
-        <v>340.7058941123234</v>
+        <v>255.8614095327997</v>
       </c>
       <c r="X25" t="n">
-        <v>340.7058941123234</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="Y25" t="n">
-        <v>340.7058941123234</v>
+        <v>43.23574868509648</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1045.413688747818</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="C26" t="n">
-        <v>676.4511718074066</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="D26" t="n">
-        <v>676.4511718074066</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="E26" t="n">
-        <v>676.4511718074066</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="F26" t="n">
-        <v>676.4511718074066</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="G26" t="n">
-        <v>546.7245541819959</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="H26" t="n">
-        <v>214.7384751463237</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="I26" t="n">
         <v>43.23574868509648</v>
@@ -6248,28 +6248,28 @@
         <v>2161.787434254824</v>
       </c>
       <c r="R26" t="n">
-        <v>2161.787434254824</v>
+        <v>2151.992868947639</v>
       </c>
       <c r="S26" t="n">
-        <v>2161.787434254824</v>
+        <v>1965.154271060828</v>
       </c>
       <c r="T26" t="n">
-        <v>2161.787434254824</v>
+        <v>1744.47159482149</v>
       </c>
       <c r="U26" t="n">
-        <v>2161.787434254824</v>
+        <v>1490.672381535673</v>
       </c>
       <c r="V26" t="n">
-        <v>2161.787434254824</v>
+        <v>1159.609494192102</v>
       </c>
       <c r="W26" t="n">
-        <v>1809.01877898471</v>
+        <v>806.8408389219881</v>
       </c>
       <c r="X26" t="n">
-        <v>1435.55302072363</v>
+        <v>433.3750806609082</v>
       </c>
       <c r="Y26" t="n">
-        <v>1045.413688747818</v>
+        <v>43.23574868509648</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>431.9193916731563</v>
+        <v>989.0771590186242</v>
       </c>
       <c r="C27" t="n">
-        <v>431.9193916731563</v>
+        <v>814.6241297374972</v>
       </c>
       <c r="D27" t="n">
-        <v>431.9193916731563</v>
+        <v>665.689720076246</v>
       </c>
       <c r="E27" t="n">
-        <v>272.6819366677008</v>
+        <v>506.4522650707904</v>
       </c>
       <c r="F27" t="n">
-        <v>272.6819366677008</v>
+        <v>359.9177070976754</v>
       </c>
       <c r="G27" t="n">
         <v>221.7572727344481</v>
@@ -6303,52 +6303,52 @@
         <v>43.23574868509648</v>
       </c>
       <c r="J27" t="n">
-        <v>95.3136693379687</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="K27" t="n">
-        <v>310.9439736976976</v>
+        <v>258.8660530448253</v>
       </c>
       <c r="L27" t="n">
-        <v>662.2899246285215</v>
+        <v>610.2120039756493</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.273299087204</v>
+        <v>1072.195378434331</v>
       </c>
       <c r="N27" t="n">
-        <v>1614.19101218083</v>
+        <v>1562.113091527958</v>
       </c>
       <c r="O27" t="n">
-        <v>1995.954328216193</v>
+        <v>1943.87640756332</v>
       </c>
       <c r="P27" t="n">
-        <v>2021.03187538399</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="Q27" t="n">
         <v>2161.787434254824</v>
       </c>
       <c r="R27" t="n">
-        <v>2096.032184468452</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="S27" t="n">
-        <v>1933.209603578576</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="T27" t="n">
-        <v>1733.322085160019</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="U27" t="n">
-        <v>1505.135992623655</v>
+        <v>2062.293759969123</v>
       </c>
       <c r="V27" t="n">
-        <v>1269.983884391913</v>
+        <v>1827.14165173738</v>
       </c>
       <c r="W27" t="n">
-        <v>1015.746527663711</v>
+        <v>1572.904295009179</v>
       </c>
       <c r="X27" t="n">
-        <v>807.8950274581782</v>
+        <v>1365.052794803646</v>
       </c>
       <c r="Y27" t="n">
-        <v>600.1347286932244</v>
+        <v>1157.292496038692</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.23574868509648</v>
+        <v>1954.547644450463</v>
       </c>
       <c r="C28" t="n">
-        <v>43.23574868509648</v>
+        <v>1954.547644450463</v>
       </c>
       <c r="D28" t="n">
-        <v>43.23574868509648</v>
+        <v>1954.547644450463</v>
       </c>
       <c r="E28" t="n">
-        <v>43.23574868509648</v>
+        <v>1806.63455086807</v>
       </c>
       <c r="F28" t="n">
-        <v>43.23574868509648</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="G28" t="n">
-        <v>43.23574868509648</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="H28" t="n">
-        <v>43.23574868509648</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="I28" t="n">
-        <v>43.23574868509648</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="J28" t="n">
-        <v>43.23574868509648</v>
+        <v>1659.74460337016</v>
       </c>
       <c r="K28" t="n">
-        <v>75.64111426784298</v>
+        <v>1692.149968952906</v>
       </c>
       <c r="L28" t="n">
-        <v>172.6352600398376</v>
+        <v>1789.144114724901</v>
       </c>
       <c r="M28" t="n">
-        <v>285.2911102681677</v>
+        <v>1901.799964953231</v>
       </c>
       <c r="N28" t="n">
-        <v>400.7028725981273</v>
+        <v>2017.211727283191</v>
       </c>
       <c r="O28" t="n">
-        <v>491.2880195303882</v>
+        <v>2107.796874215452</v>
       </c>
       <c r="P28" t="n">
-        <v>545.2785795697603</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="Q28" t="n">
-        <v>545.2785795697603</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="R28" t="n">
-        <v>545.2785795697603</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="S28" t="n">
-        <v>545.2785795697603</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="T28" t="n">
-        <v>545.2785795697603</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="U28" t="n">
-        <v>297.9202368909833</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="V28" t="n">
-        <v>43.23574868509648</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="W28" t="n">
-        <v>43.23574868509648</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="X28" t="n">
-        <v>43.23574868509648</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.23574868509648</v>
+        <v>1954.547644450463</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2161.787434254824</v>
+        <v>793.6534848714456</v>
       </c>
       <c r="C29" t="n">
-        <v>2120.196067327275</v>
+        <v>793.6534848714456</v>
       </c>
       <c r="D29" t="n">
-        <v>1761.930368720524</v>
+        <v>793.6534848714456</v>
       </c>
       <c r="E29" t="n">
-        <v>1376.14211612228</v>
+        <v>793.6534848714456</v>
       </c>
       <c r="F29" t="n">
-        <v>965.1562113326727</v>
+        <v>793.6534848714456</v>
       </c>
       <c r="G29" t="n">
-        <v>546.7245541819959</v>
+        <v>375.2218277207688</v>
       </c>
       <c r="H29" t="n">
-        <v>214.7384751463237</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="I29" t="n">
-        <v>43.23574868509649</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="J29" t="n">
-        <v>120.085692960952</v>
+        <v>120.0856929609517</v>
       </c>
       <c r="K29" t="n">
-        <v>356.008642385201</v>
+        <v>356.0086423852006</v>
       </c>
       <c r="L29" t="n">
-        <v>700.9685504224349</v>
+        <v>700.9685504224344</v>
       </c>
       <c r="M29" t="n">
         <v>1101.409460245282</v>
       </c>
       <c r="N29" t="n">
-        <v>1493.697925091333</v>
+        <v>1493.697925091332</v>
       </c>
       <c r="O29" t="n">
         <v>1818.937160623609</v>
@@ -6488,25 +6488,25 @@
         <v>2161.787434254824</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.787434254824</v>
+        <v>1974.948836368013</v>
       </c>
       <c r="T29" t="n">
-        <v>2161.787434254824</v>
+        <v>1754.266160128675</v>
       </c>
       <c r="U29" t="n">
-        <v>2161.787434254824</v>
+        <v>1500.466946842857</v>
       </c>
       <c r="V29" t="n">
-        <v>2161.787434254824</v>
+        <v>1169.404059499287</v>
       </c>
       <c r="W29" t="n">
-        <v>2161.787434254824</v>
+        <v>1167.119243132526</v>
       </c>
       <c r="X29" t="n">
-        <v>2161.787434254824</v>
+        <v>793.6534848714456</v>
       </c>
       <c r="Y29" t="n">
-        <v>2161.787434254824</v>
+        <v>793.6534848714456</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>431.9193916731568</v>
+        <v>431.9193916731563</v>
       </c>
       <c r="C30" t="n">
-        <v>257.4663623920297</v>
+        <v>257.4663623920293</v>
       </c>
       <c r="D30" t="n">
-        <v>108.5319527307785</v>
+        <v>202.473203690552</v>
       </c>
       <c r="E30" t="n">
-        <v>43.23574868509649</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="F30" t="n">
-        <v>43.23574868509649</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="G30" t="n">
-        <v>43.23574868509649</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="H30" t="n">
-        <v>43.23574868509649</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="I30" t="n">
-        <v>43.23574868509649</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="J30" t="n">
-        <v>43.23574868509649</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="K30" t="n">
-        <v>258.8660530448253</v>
+        <v>187.3814294468841</v>
       </c>
       <c r="L30" t="n">
-        <v>610.2120039756493</v>
+        <v>538.7273803777081</v>
       </c>
       <c r="M30" t="n">
-        <v>1000.710754836391</v>
+        <v>1000.71075483639</v>
       </c>
       <c r="N30" t="n">
         <v>1490.628467930017</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.39178396538</v>
+        <v>1872.391783965379</v>
       </c>
       <c r="P30" t="n">
         <v>2161.787434254824</v>
@@ -6573,19 +6573,19 @@
         <v>1733.322085160019</v>
       </c>
       <c r="U30" t="n">
-        <v>1505.135992623656</v>
+        <v>1505.135992623655</v>
       </c>
       <c r="V30" t="n">
         <v>1269.983884391913</v>
       </c>
       <c r="W30" t="n">
-        <v>1015.746527663712</v>
+        <v>1015.746527663711</v>
       </c>
       <c r="X30" t="n">
-        <v>807.8950274581787</v>
+        <v>807.8950274581782</v>
       </c>
       <c r="Y30" t="n">
-        <v>600.1347286932248</v>
+        <v>600.1347286932244</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>401.759177189526</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="C31" t="n">
-        <v>401.759177189526</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="D31" t="n">
-        <v>251.6425377771902</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="E31" t="n">
-        <v>103.7294441947971</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="F31" t="n">
-        <v>103.7294441947971</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="G31" t="n">
-        <v>103.7294441947971</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="H31" t="n">
-        <v>103.7294441947971</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="I31" t="n">
-        <v>103.7294441947971</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="J31" t="n">
-        <v>43.23574868509649</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="K31" t="n">
-        <v>75.64111426784299</v>
+        <v>75.64111426784298</v>
       </c>
       <c r="L31" t="n">
         <v>172.6352600398376</v>
@@ -6646,25 +6646,25 @@
         <v>545.2785795697603</v>
       </c>
       <c r="S31" t="n">
-        <v>545.2785795697603</v>
+        <v>327.3328519062086</v>
       </c>
       <c r="T31" t="n">
-        <v>401.759177189526</v>
+        <v>99.12798585472385</v>
       </c>
       <c r="U31" t="n">
-        <v>401.759177189526</v>
+        <v>99.12798585472385</v>
       </c>
       <c r="V31" t="n">
-        <v>401.759177189526</v>
+        <v>99.12798585472385</v>
       </c>
       <c r="W31" t="n">
-        <v>401.759177189526</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="X31" t="n">
-        <v>401.759177189526</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="Y31" t="n">
-        <v>401.759177189526</v>
+        <v>43.23574868509648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1156.252216830503</v>
+        <v>1890.531624082823</v>
       </c>
       <c r="C32" t="n">
-        <v>787.2896998900912</v>
+        <v>1521.569107142412</v>
       </c>
       <c r="D32" t="n">
-        <v>429.0240012833407</v>
+        <v>1163.303408535661</v>
       </c>
       <c r="E32" t="n">
-        <v>43.23574868509648</v>
+        <v>777.5151559374169</v>
       </c>
       <c r="F32" t="n">
-        <v>43.23574868509648</v>
+        <v>633.1701322970005</v>
       </c>
       <c r="G32" t="n">
-        <v>43.23574868509648</v>
+        <v>214.7384751463237</v>
       </c>
       <c r="H32" t="n">
-        <v>43.23574868509648</v>
+        <v>214.7384751463237</v>
       </c>
       <c r="I32" t="n">
         <v>43.23574868509648</v>
@@ -6722,28 +6722,28 @@
         <v>2161.787434254824</v>
       </c>
       <c r="R32" t="n">
-        <v>2093.882972730005</v>
+        <v>2077.370221969634</v>
       </c>
       <c r="S32" t="n">
-        <v>2093.882972730005</v>
+        <v>1890.531624082823</v>
       </c>
       <c r="T32" t="n">
-        <v>2093.882972730005</v>
+        <v>1890.531624082823</v>
       </c>
       <c r="U32" t="n">
-        <v>1840.083759444188</v>
+        <v>1890.531624082823</v>
       </c>
       <c r="V32" t="n">
-        <v>1509.020872100617</v>
+        <v>1890.531624082823</v>
       </c>
       <c r="W32" t="n">
-        <v>1156.252216830503</v>
+        <v>1890.531624082823</v>
       </c>
       <c r="X32" t="n">
-        <v>1156.252216830503</v>
+        <v>1890.531624082823</v>
       </c>
       <c r="Y32" t="n">
-        <v>1156.252216830503</v>
+        <v>1890.531624082823</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>989.0771590186242</v>
+        <v>860.3847407679611</v>
       </c>
       <c r="C33" t="n">
-        <v>814.6241297374972</v>
+        <v>685.9317114868342</v>
       </c>
       <c r="D33" t="n">
-        <v>665.689720076246</v>
+        <v>536.9973018255829</v>
       </c>
       <c r="E33" t="n">
-        <v>506.4522650707904</v>
+        <v>377.7598468201274</v>
       </c>
       <c r="F33" t="n">
-        <v>359.9177070976754</v>
+        <v>231.2252888470124</v>
       </c>
       <c r="G33" t="n">
-        <v>221.7572727344481</v>
+        <v>113.8969139019139</v>
       </c>
       <c r="H33" t="n">
         <v>113.8969139019139</v>
@@ -6783,46 +6783,46 @@
         <v>258.8660530448253</v>
       </c>
       <c r="L33" t="n">
-        <v>610.2120039756493</v>
+        <v>397.9718215068741</v>
       </c>
       <c r="M33" t="n">
-        <v>1000.71075483639</v>
+        <v>859.9551959655562</v>
       </c>
       <c r="N33" t="n">
-        <v>1490.628467930017</v>
+        <v>1349.872909059183</v>
       </c>
       <c r="O33" t="n">
-        <v>1872.391783965379</v>
+        <v>1731.636225094545</v>
       </c>
       <c r="P33" t="n">
-        <v>2161.787434254824</v>
+        <v>2021.03187538399</v>
       </c>
       <c r="Q33" t="n">
         <v>2161.787434254824</v>
       </c>
       <c r="R33" t="n">
-        <v>2096.032184468452</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="S33" t="n">
-        <v>1933.209603578576</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="T33" t="n">
-        <v>1933.209603578576</v>
+        <v>2161.787434254824</v>
       </c>
       <c r="U33" t="n">
-        <v>1933.209603578576</v>
+        <v>1933.60134171846</v>
       </c>
       <c r="V33" t="n">
-        <v>1827.14165173738</v>
+        <v>1698.449233486718</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.904295009179</v>
+        <v>1444.211876758516</v>
       </c>
       <c r="X33" t="n">
-        <v>1365.052794803646</v>
+        <v>1236.360376552983</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.292496038692</v>
+        <v>1028.600077788029</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1659.74460337016</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="C34" t="n">
-        <v>1659.74460337016</v>
+        <v>376.3423966418534</v>
       </c>
       <c r="D34" t="n">
-        <v>1659.74460337016</v>
+        <v>376.3423966418534</v>
       </c>
       <c r="E34" t="n">
-        <v>1659.74460337016</v>
+        <v>376.3423966418534</v>
       </c>
       <c r="F34" t="n">
-        <v>1659.74460337016</v>
+        <v>376.3423966418534</v>
       </c>
       <c r="G34" t="n">
-        <v>1659.74460337016</v>
+        <v>207.1327354031443</v>
       </c>
       <c r="H34" t="n">
-        <v>1659.74460337016</v>
+        <v>47.51850796706898</v>
       </c>
       <c r="I34" t="n">
-        <v>1659.74460337016</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="J34" t="n">
-        <v>1659.74460337016</v>
+        <v>43.23574868509648</v>
       </c>
       <c r="K34" t="n">
-        <v>1692.149968952906</v>
+        <v>75.64111426784298</v>
       </c>
       <c r="L34" t="n">
-        <v>1789.144114724901</v>
+        <v>172.6352600398376</v>
       </c>
       <c r="M34" t="n">
-        <v>1901.799964953231</v>
+        <v>285.2911102681677</v>
       </c>
       <c r="N34" t="n">
-        <v>2017.211727283191</v>
+        <v>400.7028725981273</v>
       </c>
       <c r="O34" t="n">
-        <v>2107.796874215452</v>
+        <v>491.2880195303882</v>
       </c>
       <c r="P34" t="n">
-        <v>2161.787434254824</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="Q34" t="n">
-        <v>2161.787434254824</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="R34" t="n">
-        <v>2004.204663030396</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="S34" t="n">
-        <v>1786.258935366844</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="T34" t="n">
-        <v>1659.74460337016</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="U34" t="n">
-        <v>1659.74460337016</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="V34" t="n">
-        <v>1659.74460337016</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="W34" t="n">
-        <v>1659.74460337016</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="X34" t="n">
-        <v>1659.74460337016</v>
+        <v>545.2785795697603</v>
       </c>
       <c r="Y34" t="n">
-        <v>1659.74460337016</v>
+        <v>545.2785795697603</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1395.699618025472</v>
+        <v>860.5159903328256</v>
       </c>
       <c r="C35" t="n">
-        <v>1395.699618025472</v>
+        <v>860.5159903328256</v>
       </c>
       <c r="D35" t="n">
-        <v>1037.433919418721</v>
+        <v>860.5159903328256</v>
       </c>
       <c r="E35" t="n">
-        <v>1037.433919418721</v>
+        <v>860.5159903328256</v>
       </c>
       <c r="F35" t="n">
-        <v>626.4480146291139</v>
+        <v>449.5300855432181</v>
       </c>
       <c r="G35" t="n">
-        <v>209.9079057121216</v>
+        <v>32.98997662622579</v>
       </c>
       <c r="H35" t="n">
         <v>32.98997662622579</v>
@@ -6950,7 +6950,7 @@
         <v>1406.602208756606</v>
       </c>
       <c r="O35" t="n">
-        <v>1649.498831311289</v>
+        <v>1409.58905136768</v>
       </c>
       <c r="P35" t="n">
         <v>1649.498831311289</v>
@@ -6965,22 +6965,22 @@
         <v>1649.498831311289</v>
       </c>
       <c r="T35" t="n">
-        <v>1649.498831311289</v>
+        <v>1428.816155071951</v>
       </c>
       <c r="U35" t="n">
-        <v>1395.699618025472</v>
+        <v>1191.578877676396</v>
       </c>
       <c r="V35" t="n">
-        <v>1395.699618025472</v>
+        <v>860.5159903328256</v>
       </c>
       <c r="W35" t="n">
-        <v>1395.699618025472</v>
+        <v>860.5159903328256</v>
       </c>
       <c r="X35" t="n">
-        <v>1395.699618025472</v>
+        <v>860.5159903328256</v>
       </c>
       <c r="Y35" t="n">
-        <v>1395.699618025472</v>
+        <v>860.5159903328256</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>582.8565079162847</v>
+        <v>804.3783576786266</v>
       </c>
       <c r="C36" t="n">
-        <v>408.4034786351577</v>
+        <v>804.3783576786266</v>
       </c>
       <c r="D36" t="n">
-        <v>338.7619896047963</v>
+        <v>655.4439480173753</v>
       </c>
       <c r="E36" t="n">
-        <v>179.5245345993408</v>
+        <v>496.2064930119197</v>
       </c>
       <c r="F36" t="n">
-        <v>32.98997662622579</v>
+        <v>349.6719350388047</v>
       </c>
       <c r="G36" t="n">
-        <v>32.98997662622579</v>
+        <v>211.5115006755774</v>
       </c>
       <c r="H36" t="n">
-        <v>32.98997662622579</v>
+        <v>103.6511418430432</v>
       </c>
       <c r="I36" t="n">
         <v>32.98997662622579</v>
@@ -7017,16 +7017,16 @@
         <v>85.06789727909802</v>
       </c>
       <c r="K36" t="n">
-        <v>85.06789727909802</v>
+        <v>300.6982016388268</v>
       </c>
       <c r="L36" t="n">
-        <v>436.413848209922</v>
+        <v>652.0441525696508</v>
       </c>
       <c r="M36" t="n">
-        <v>844.6648089594662</v>
+        <v>1060.295113319195</v>
       </c>
       <c r="N36" t="n">
-        <v>978.3398649864821</v>
+        <v>1360.103181021845</v>
       </c>
       <c r="O36" t="n">
         <v>1360.103181021845</v>
@@ -7044,22 +7044,22 @@
         <v>1420.921000635041</v>
       </c>
       <c r="T36" t="n">
-        <v>1420.921000635041</v>
+        <v>1221.033482216485</v>
       </c>
       <c r="U36" t="n">
-        <v>1420.921000635041</v>
+        <v>1012.13865644358</v>
       </c>
       <c r="V36" t="n">
-        <v>1420.921000635041</v>
+        <v>1012.13865644358</v>
       </c>
       <c r="W36" t="n">
-        <v>1166.68364390684</v>
+        <v>1012.13865644358</v>
       </c>
       <c r="X36" t="n">
-        <v>958.8321437013067</v>
+        <v>1012.13865644358</v>
       </c>
       <c r="Y36" t="n">
-        <v>751.0718449363528</v>
+        <v>804.3783576786266</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>314.2402283673595</v>
+        <v>41.89229956284439</v>
       </c>
       <c r="C37" t="n">
-        <v>145.3040454394526</v>
+        <v>41.89229956284439</v>
       </c>
       <c r="D37" t="n">
-        <v>145.3040454394526</v>
+        <v>41.89229956284439</v>
       </c>
       <c r="E37" t="n">
-        <v>32.98997662622579</v>
+        <v>41.89229956284439</v>
       </c>
       <c r="F37" t="n">
         <v>32.98997662622579</v>
@@ -7114,31 +7114,31 @@
         <v>535.0328075108896</v>
       </c>
       <c r="Q37" t="n">
-        <v>535.0328075108896</v>
+        <v>488.0428932778808</v>
       </c>
       <c r="R37" t="n">
-        <v>535.0328075108896</v>
+        <v>488.0428932778808</v>
       </c>
       <c r="S37" t="n">
-        <v>535.0328075108896</v>
+        <v>270.0971656143291</v>
       </c>
       <c r="T37" t="n">
-        <v>535.0328075108896</v>
+        <v>41.89229956284439</v>
       </c>
       <c r="U37" t="n">
-        <v>535.0328075108896</v>
+        <v>41.89229956284439</v>
       </c>
       <c r="V37" t="n">
-        <v>535.0328075108896</v>
+        <v>41.89229956284439</v>
       </c>
       <c r="W37" t="n">
-        <v>535.0328075108896</v>
+        <v>41.89229956284439</v>
       </c>
       <c r="X37" t="n">
-        <v>535.0328075108896</v>
+        <v>41.89229956284439</v>
       </c>
       <c r="Y37" t="n">
-        <v>314.2402283673595</v>
+        <v>41.89229956284439</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>401.9524935666375</v>
+        <v>777.0439278312206</v>
       </c>
       <c r="C38" t="n">
-        <v>32.98997662622579</v>
+        <v>777.0439278312206</v>
       </c>
       <c r="D38" t="n">
-        <v>32.98997662622579</v>
+        <v>418.77822922447</v>
       </c>
       <c r="E38" t="n">
         <v>32.98997662622579</v>
@@ -7172,25 +7172,25 @@
         <v>32.98997662622579</v>
       </c>
       <c r="J38" t="n">
-        <v>32.98997662622579</v>
+        <v>109.839920902081</v>
       </c>
       <c r="K38" t="n">
-        <v>186.5703130728813</v>
+        <v>109.839920902081</v>
       </c>
       <c r="L38" t="n">
-        <v>531.5302211101151</v>
+        <v>428.58972742251</v>
       </c>
       <c r="M38" t="n">
-        <v>931.9711309329625</v>
+        <v>829.0306372453574</v>
       </c>
       <c r="N38" t="n">
-        <v>1324.259595779013</v>
+        <v>1221.319102091408</v>
       </c>
       <c r="O38" t="n">
-        <v>1649.498831311289</v>
+        <v>1546.558337623684</v>
       </c>
       <c r="P38" t="n">
-        <v>1649.498831311289</v>
+        <v>1546.558337623684</v>
       </c>
       <c r="Q38" t="n">
         <v>1649.498831311289</v>
@@ -7199,25 +7199,25 @@
         <v>1565.0816190261</v>
       </c>
       <c r="S38" t="n">
-        <v>1552.157423867651</v>
+        <v>1378.243021139289</v>
       </c>
       <c r="T38" t="n">
-        <v>1552.157423867651</v>
+        <v>1157.560344899951</v>
       </c>
       <c r="U38" t="n">
-        <v>1552.157423867651</v>
+        <v>903.7611316141334</v>
       </c>
       <c r="V38" t="n">
-        <v>1552.157423867651</v>
+        <v>777.0439278312206</v>
       </c>
       <c r="W38" t="n">
-        <v>1552.157423867651</v>
+        <v>777.0439278312206</v>
       </c>
       <c r="X38" t="n">
-        <v>1178.691665606571</v>
+        <v>777.0439278312206</v>
       </c>
       <c r="Y38" t="n">
-        <v>788.5523336307592</v>
+        <v>777.0439278312206</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>838.3923674353894</v>
+        <v>32.98997662622579</v>
       </c>
       <c r="C39" t="n">
-        <v>663.9393381542624</v>
+        <v>32.98997662622579</v>
       </c>
       <c r="D39" t="n">
-        <v>515.0049284930111</v>
+        <v>32.98997662622579</v>
       </c>
       <c r="E39" t="n">
-        <v>355.7674734875556</v>
+        <v>32.98997662622579</v>
       </c>
       <c r="F39" t="n">
-        <v>209.2329155144406</v>
+        <v>32.98997662622579</v>
       </c>
       <c r="G39" t="n">
-        <v>71.07248115121328</v>
+        <v>32.98997662622579</v>
       </c>
       <c r="H39" t="n">
         <v>32.98997662622579</v>
@@ -7260,13 +7260,13 @@
         <v>652.0441525696508</v>
       </c>
       <c r="M39" t="n">
-        <v>652.979513915833</v>
+        <v>1060.295113319195</v>
       </c>
       <c r="N39" t="n">
-        <v>978.3398649864821</v>
+        <v>1468.546074068739</v>
       </c>
       <c r="O39" t="n">
-        <v>1360.103181021845</v>
+        <v>1649.498831311289</v>
       </c>
       <c r="P39" t="n">
         <v>1649.498831311289</v>
@@ -7275,28 +7275,28 @@
         <v>1649.498831311289</v>
       </c>
       <c r="R39" t="n">
-        <v>1649.498831311289</v>
+        <v>1583.743581524917</v>
       </c>
       <c r="S39" t="n">
-        <v>1649.498831311289</v>
+        <v>1420.921000635041</v>
       </c>
       <c r="T39" t="n">
-        <v>1449.611312892733</v>
+        <v>1221.033482216485</v>
       </c>
       <c r="U39" t="n">
-        <v>1449.611312892733</v>
+        <v>992.8473896801208</v>
       </c>
       <c r="V39" t="n">
-        <v>1214.45920466099</v>
+        <v>757.6952814483782</v>
       </c>
       <c r="W39" t="n">
-        <v>1214.45920466099</v>
+        <v>503.4579247201765</v>
       </c>
       <c r="X39" t="n">
-        <v>1006.607704455457</v>
+        <v>295.6064245146437</v>
       </c>
       <c r="Y39" t="n">
-        <v>1006.607704455457</v>
+        <v>87.8461257496898</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.5917635371198</v>
+        <v>201.9261595541327</v>
       </c>
       <c r="C40" t="n">
         <v>32.98997662622579</v>
@@ -7372,10 +7372,10 @@
         <v>535.0328075108896</v>
       </c>
       <c r="X40" t="n">
-        <v>535.0328075108896</v>
+        <v>307.0432566128723</v>
       </c>
       <c r="Y40" t="n">
-        <v>314.2402283673595</v>
+        <v>307.0432566128723</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>401.9524935666375</v>
+        <v>32.98997662622579</v>
       </c>
       <c r="C41" t="n">
         <v>32.98997662622579</v>
@@ -7409,52 +7409,52 @@
         <v>32.98997662622579</v>
       </c>
       <c r="J41" t="n">
-        <v>32.98997662622579</v>
+        <v>109.839920902081</v>
       </c>
       <c r="K41" t="n">
-        <v>32.98997662622579</v>
+        <v>109.839920902081</v>
       </c>
       <c r="L41" t="n">
-        <v>188.6799474789001</v>
+        <v>454.7998289393148</v>
       </c>
       <c r="M41" t="n">
-        <v>589.1208573017475</v>
+        <v>855.2407387621622</v>
       </c>
       <c r="N41" t="n">
-        <v>981.4093221477976</v>
+        <v>1247.529203608212</v>
       </c>
       <c r="O41" t="n">
-        <v>1306.648557680074</v>
+        <v>1572.768439140489</v>
       </c>
       <c r="P41" t="n">
-        <v>1546.558337623684</v>
+        <v>1649.498831311289</v>
       </c>
       <c r="Q41" t="n">
         <v>1649.498831311289</v>
       </c>
       <c r="R41" t="n">
-        <v>1649.498831311289</v>
+        <v>1565.0816190261</v>
       </c>
       <c r="S41" t="n">
-        <v>1649.498831311289</v>
+        <v>1378.243021139289</v>
       </c>
       <c r="T41" t="n">
-        <v>1649.498831311289</v>
+        <v>1157.560344899951</v>
       </c>
       <c r="U41" t="n">
-        <v>1395.699618025472</v>
+        <v>903.7611316141334</v>
       </c>
       <c r="V41" t="n">
-        <v>1395.699618025472</v>
+        <v>572.6982442705628</v>
       </c>
       <c r="W41" t="n">
-        <v>1395.699618025472</v>
+        <v>219.9295890004486</v>
       </c>
       <c r="X41" t="n">
-        <v>1022.233859764392</v>
+        <v>32.98997662622579</v>
       </c>
       <c r="Y41" t="n">
-        <v>788.5523336307592</v>
+        <v>32.98997662622579</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>696.5179988460923</v>
+        <v>967.1878636281676</v>
       </c>
       <c r="C42" t="n">
-        <v>696.5179988460923</v>
+        <v>792.7348343470406</v>
       </c>
       <c r="D42" t="n">
-        <v>547.583589184841</v>
+        <v>643.8004246857894</v>
       </c>
       <c r="E42" t="n">
-        <v>388.3461341793856</v>
+        <v>484.5629696803339</v>
       </c>
       <c r="F42" t="n">
-        <v>241.8115762062705</v>
+        <v>349.6719350388047</v>
       </c>
       <c r="G42" t="n">
-        <v>103.6511418430432</v>
+        <v>211.5115006755774</v>
       </c>
       <c r="H42" t="n">
         <v>103.6511418430432</v>
@@ -7488,25 +7488,25 @@
         <v>32.98997662622579</v>
       </c>
       <c r="J42" t="n">
-        <v>85.06789727909802</v>
+        <v>32.98997662622579</v>
       </c>
       <c r="K42" t="n">
-        <v>85.06789727909802</v>
+        <v>248.6202809859547</v>
       </c>
       <c r="L42" t="n">
-        <v>436.413848209922</v>
+        <v>599.9662319167786</v>
       </c>
       <c r="M42" t="n">
-        <v>844.6648089594662</v>
+        <v>718.7289956555487</v>
       </c>
       <c r="N42" t="n">
-        <v>1252.91576970901</v>
+        <v>1126.979956405093</v>
       </c>
       <c r="O42" t="n">
-        <v>1634.679085744373</v>
+        <v>1508.743272440455</v>
       </c>
       <c r="P42" t="n">
-        <v>1649.498831311289</v>
+        <v>1508.743272440455</v>
       </c>
       <c r="Q42" t="n">
         <v>1649.498831311289</v>
@@ -7515,25 +7515,25 @@
         <v>1649.498831311289</v>
       </c>
       <c r="S42" t="n">
-        <v>1486.676250421413</v>
+        <v>1649.498831311289</v>
       </c>
       <c r="T42" t="n">
-        <v>1286.788732002857</v>
+        <v>1449.611312892733</v>
       </c>
       <c r="U42" t="n">
-        <v>1058.602639466493</v>
+        <v>1221.425220356369</v>
       </c>
       <c r="V42" t="n">
-        <v>904.2782976110461</v>
+        <v>1221.425220356369</v>
       </c>
       <c r="W42" t="n">
-        <v>904.2782976110461</v>
+        <v>967.1878636281676</v>
       </c>
       <c r="X42" t="n">
-        <v>904.2782976110461</v>
+        <v>967.1878636281676</v>
       </c>
       <c r="Y42" t="n">
-        <v>696.5179988460923</v>
+        <v>967.1878636281676</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>535.0328075108896</v>
+        <v>1147.456000426626</v>
       </c>
       <c r="C43" t="n">
-        <v>535.0328075108896</v>
+        <v>1147.456000426626</v>
       </c>
       <c r="D43" t="n">
-        <v>535.0328075108896</v>
+        <v>1147.456000426626</v>
       </c>
       <c r="E43" t="n">
-        <v>535.0328075108896</v>
+        <v>1147.456000426626</v>
       </c>
       <c r="F43" t="n">
-        <v>535.0328075108896</v>
+        <v>1147.456000426626</v>
       </c>
       <c r="G43" t="n">
-        <v>395.737902401111</v>
+        <v>1147.456000426626</v>
       </c>
       <c r="H43" t="n">
-        <v>236.1236749650357</v>
+        <v>1147.456000426626</v>
       </c>
       <c r="I43" t="n">
-        <v>93.48367213592641</v>
+        <v>1147.456000426626</v>
       </c>
       <c r="J43" t="n">
-        <v>32.98997662622579</v>
+        <v>1147.456000426626</v>
       </c>
       <c r="K43" t="n">
-        <v>65.39534220897229</v>
+        <v>1179.861366009372</v>
       </c>
       <c r="L43" t="n">
-        <v>162.3894879809669</v>
+        <v>1276.855511781367</v>
       </c>
       <c r="M43" t="n">
-        <v>275.045338209297</v>
+        <v>1389.511362009697</v>
       </c>
       <c r="N43" t="n">
-        <v>390.4571005392567</v>
+        <v>1504.923124339657</v>
       </c>
       <c r="O43" t="n">
-        <v>481.0422474715176</v>
+        <v>1595.508271271917</v>
       </c>
       <c r="P43" t="n">
-        <v>535.0328075108896</v>
+        <v>1649.498831311289</v>
       </c>
       <c r="Q43" t="n">
-        <v>535.0328075108896</v>
+        <v>1649.498831311289</v>
       </c>
       <c r="R43" t="n">
-        <v>535.0328075108896</v>
+        <v>1649.498831311289</v>
       </c>
       <c r="S43" t="n">
-        <v>535.0328075108896</v>
+        <v>1649.498831311289</v>
       </c>
       <c r="T43" t="n">
-        <v>535.0328075108896</v>
+        <v>1649.498831311289</v>
       </c>
       <c r="U43" t="n">
-        <v>535.0328075108896</v>
+        <v>1360.313774003473</v>
       </c>
       <c r="V43" t="n">
-        <v>535.0328075108896</v>
+        <v>1360.313774003473</v>
       </c>
       <c r="W43" t="n">
-        <v>535.0328075108896</v>
+        <v>1360.313774003473</v>
       </c>
       <c r="X43" t="n">
-        <v>535.0328075108896</v>
+        <v>1360.313774003473</v>
       </c>
       <c r="Y43" t="n">
-        <v>535.0328075108896</v>
+        <v>1147.456000426626</v>
       </c>
     </row>
     <row r="44">
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>213.9115537876051</v>
+        <v>213.911553787605</v>
       </c>
       <c r="L11" t="n">
-        <v>138.5800291230969</v>
+        <v>197.2890137335726</v>
       </c>
       <c r="M11" t="n">
-        <v>173.0999167308904</v>
+        <v>114.3909321204146</v>
       </c>
       <c r="N11" t="n">
         <v>41.09594982001434</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>174.7289995063119</v>
+        <v>46.65684877042824</v>
       </c>
       <c r="L12" t="n">
         <v>15.94544537333394</v>
@@ -8778,16 +8778,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>53.82474616820879</v>
+        <v>112.5481482171882</v>
       </c>
       <c r="O12" t="n">
-        <v>8.242808129898691</v>
+        <v>136.3149588657823</v>
       </c>
       <c r="P12" t="n">
         <v>154.2160806996139</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.9721062789711</v>
+        <v>137.2487042299916</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>213.9115537876051</v>
+        <v>85.83940305172146</v>
       </c>
       <c r="L14" t="n">
         <v>69.21686299768899</v>
@@ -8936,13 +8936,13 @@
         <v>45.02776599500677</v>
       </c>
       <c r="N14" t="n">
-        <v>169.168100555898</v>
+        <v>110.4591159454223</v>
       </c>
       <c r="O14" t="n">
-        <v>121.6388670525202</v>
+        <v>180.3478516629959</v>
       </c>
       <c r="P14" t="n">
-        <v>79.46559711733121</v>
+        <v>207.5377478532148</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>174.7289995063119</v>
+        <v>46.65684877042824</v>
       </c>
       <c r="L15" t="n">
-        <v>15.94544537333394</v>
+        <v>70.71500098213073</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>127.1273412952956</v>
       </c>
       <c r="N15" t="n">
-        <v>112.5481482171882</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>136.3149588657823</v>
       </c>
       <c r="P15" t="n">
-        <v>95.49267865063443</v>
+        <v>154.2160806996139</v>
       </c>
       <c r="Q15" t="n">
         <v>67.89995554308753</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.47040883282605</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>213.9115537876051</v>
@@ -9170,10 +9170,10 @@
         <v>69.21686299768899</v>
       </c>
       <c r="M17" t="n">
-        <v>45.02776599500677</v>
+        <v>90.29907803867773</v>
       </c>
       <c r="N17" t="n">
-        <v>60.01317154878639</v>
+        <v>41.09594982001434</v>
       </c>
       <c r="O17" t="n">
         <v>180.3478516629959</v>
@@ -9182,7 +9182,7 @@
         <v>207.5377478532148</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>108.3346940057581</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>73.48707508498235</v>
       </c>
       <c r="K18" t="n">
         <v>46.65684877042824</v>
       </c>
       <c r="L18" t="n">
-        <v>15.94544537333394</v>
+        <v>138.8429637562526</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>127.1273412952956</v>
       </c>
       <c r="N18" t="n">
-        <v>53.82474616820878</v>
+        <v>112.5481482171882</v>
       </c>
       <c r="O18" t="n">
         <v>136.3149588657823</v>
       </c>
       <c r="P18" t="n">
-        <v>154.2160806996139</v>
+        <v>26.14392996373033</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.9721062789711</v>
+        <v>67.89995554308753</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>73.48707508498235</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>139.6545862541812</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>179.478296580997</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>67.89995554308753</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>73.48707508498235</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>50.08121431684609</v>
+        <v>46.65684877042824</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>160.8976930268406</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>73.48707508498235</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>51.47478568877813</v>
+        <v>246.2560781369663</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>67.89995554308753</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>73.48707508498235</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>192.2585465096076</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>393.4983732470295</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10431,10 +10431,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>156.4563226077267</v>
       </c>
       <c r="M33" t="n">
-        <v>393.498373247029</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>67.89995554308753</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10598,10 +10598,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>297.6258247197219</v>
+        <v>55.29271366557042</v>
       </c>
       <c r="P35" t="n">
-        <v>79.46559711733121</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>108.3346940057581</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>46.65684877042824</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,10 +10674,10 @@
         <v>411.4298983872343</v>
       </c>
       <c r="N36" t="n">
-        <v>119.5013065995025</v>
+        <v>287.312429504183</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>8.242808129898691</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.47040883282605</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>240.9710560281412</v>
+        <v>85.83940305172146</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>391.1863645334759</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10841,7 +10841,7 @@
         <v>79.46559711733121</v>
       </c>
       <c r="Q38" t="n">
-        <v>108.3346940057581</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>411.4298983872343</v>
       </c>
       <c r="N39" t="n">
-        <v>313.1228167445865</v>
+        <v>396.850705309127</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>191.0233710011615</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>26.14392996373033</v>
       </c>
       <c r="Q39" t="n">
         <v>67.89995554308753</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.47040883282605</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>85.83940305172146</v>
       </c>
       <c r="L41" t="n">
-        <v>226.4794598185721</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11075,10 +11075,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>156.9710437545033</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>108.3346940057581</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>73.48707508498235</v>
       </c>
       <c r="K42" t="n">
-        <v>46.65684877042824</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>411.4298983872343</v>
+        <v>119.0175781743312</v>
       </c>
       <c r="N42" t="n">
         <v>396.850705309127</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>41.11336993031263</v>
+        <v>26.14392996373033</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.89995554308753</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23261,22 +23261,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>325.4501314148543</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>294.0700953735451</v>
       </c>
       <c r="G11" t="n">
-        <v>414.24734057917</v>
+        <v>286.1751898432865</v>
       </c>
       <c r="H11" t="n">
-        <v>328.6662182453155</v>
+        <v>200.5940675094319</v>
       </c>
       <c r="I11" t="n">
-        <v>169.7876991966149</v>
+        <v>41.7155484607313</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>83.57304016233765</v>
       </c>
       <c r="S11" t="n">
-        <v>56.89806117205907</v>
+        <v>184.9702119079427</v>
       </c>
       <c r="T11" t="n">
-        <v>90.40369874106091</v>
+        <v>218.4758494769445</v>
       </c>
       <c r="U11" t="n">
-        <v>123.1890704170757</v>
+        <v>251.2612211529593</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23343,19 +23343,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>29.57292971951733</v>
+        <v>93.50328816020919</v>
       </c>
       <c r="F12" t="n">
-        <v>16.99706165750027</v>
+        <v>16.9970616575003</v>
       </c>
       <c r="G12" t="n">
-        <v>8.706679283711395</v>
+        <v>8.706679283711424</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>63.9303584406918</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23425,19 +23425,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>92.50385620936856</v>
       </c>
       <c r="G13" t="n">
-        <v>167.517564626322</v>
+        <v>39.4454138904384</v>
       </c>
       <c r="H13" t="n">
-        <v>158.0180851617145</v>
+        <v>29.94593442583096</v>
       </c>
       <c r="I13" t="n">
-        <v>13.14145206493455</v>
+        <v>13.14145206493458</v>
       </c>
       <c r="J13" t="n">
-        <v>59.8887585546036</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>46.52001509067868</v>
       </c>
       <c r="R13" t="n">
-        <v>27.93479277630013</v>
+        <v>156.0069435121837</v>
       </c>
       <c r="S13" t="n">
-        <v>87.69411965103251</v>
+        <v>215.7662703869161</v>
       </c>
       <c r="T13" t="n">
-        <v>159.6368821134823</v>
+        <v>225.9228173909699</v>
       </c>
       <c r="U13" t="n">
         <v>286.293206734738</v>
@@ -23510,10 +23510,10 @@
         <v>414.24734057917</v>
       </c>
       <c r="H14" t="n">
-        <v>215.8602678771493</v>
+        <v>328.6662182453155</v>
       </c>
       <c r="I14" t="n">
-        <v>169.7876991966149</v>
+        <v>140.5547889907862</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>83.57304016233765</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>56.89806117205907</v>
@@ -23580,7 +23580,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>93.50328816020914</v>
       </c>
       <c r="F15" t="n">
         <v>16.99706165750027</v>
@@ -23589,10 +23589,10 @@
         <v>8.706679283711395</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7817552442088</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>69.95455356464927</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23628,7 +23628,7 @@
         <v>197.8886432343709</v>
       </c>
       <c r="U15" t="n">
-        <v>113.0982812428339</v>
+        <v>225.9042316110001</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.61054504142075</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23662,19 +23662,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>139.0238713000473</v>
       </c>
       <c r="G16" t="n">
-        <v>167.517564626322</v>
+        <v>39.44541389043837</v>
       </c>
       <c r="H16" t="n">
-        <v>158.0180851617145</v>
+        <v>29.94593442583093</v>
       </c>
       <c r="I16" t="n">
-        <v>141.2136028008182</v>
+        <v>13.14145206493455</v>
       </c>
       <c r="J16" t="n">
-        <v>59.8887585546036</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,22 +23695,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.52001509067868</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>156.0069435121837</v>
       </c>
       <c r="S16" t="n">
-        <v>102.9603200187499</v>
+        <v>215.7662703869161</v>
       </c>
       <c r="T16" t="n">
-        <v>97.85066665508626</v>
+        <v>225.9228173909699</v>
       </c>
       <c r="U16" t="n">
-        <v>158.2210559988544</v>
+        <v>286.293206734738</v>
       </c>
       <c r="V16" t="n">
-        <v>124.0654925879444</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23780,7 +23780,7 @@
         <v>83.57304016233765</v>
       </c>
       <c r="S17" t="n">
-        <v>184.9702119079427</v>
+        <v>72.16426153977646</v>
       </c>
       <c r="T17" t="n">
         <v>90.40369874106091</v>
@@ -23792,7 +23792,7 @@
         <v>199.6801077342513</v>
       </c>
       <c r="W17" t="n">
-        <v>236.4350183492467</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23823,13 +23823,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.778830019595</v>
+        <v>9.662584277028117</v>
       </c>
       <c r="H18" t="n">
-        <v>106.7817552442088</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>69.95455356464927</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,13 +23862,13 @@
         <v>33.12220434509393</v>
       </c>
       <c r="T18" t="n">
-        <v>69.81649249848732</v>
+        <v>197.8886432343709</v>
       </c>
       <c r="U18" t="n">
-        <v>97.8320808751165</v>
+        <v>225.9042316110001</v>
       </c>
       <c r="V18" t="n">
-        <v>185.0923340697675</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.75982944605369</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23911,7 +23911,7 @@
         <v>141.2136028008182</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>59.8887585546036</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>97.85066665508626</v>
       </c>
       <c r="U19" t="n">
-        <v>286.293206734738</v>
+        <v>173.4872563665717</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>124.0654925879444</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>172.7924635754745</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.24734057917</v>
       </c>
       <c r="H20" t="n">
-        <v>211.8385365715769</v>
+        <v>328.6662182453155</v>
       </c>
       <c r="I20" t="n">
         <v>169.7876991966149</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>83.57304016233765</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24023,19 +24023,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2612211529593</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>90.0563186864216</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>127.4054940681565</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>64.89944146919132</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>65.09769728850851</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>161.1943550809775</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.8886432343709</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.517564626322</v>
@@ -24181,10 +24181,10 @@
         <v>225.9228173909699</v>
       </c>
       <c r="U22" t="n">
-        <v>286.293206734738</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>41.40844748274861</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.41726144577791</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,7 +24215,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24224,7 @@
         <v>328.6662182453155</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>169.7876991966149</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>83.57304016233765</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>184.9702119079427</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.0764120245416</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24266,13 +24266,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>345.8154366298394</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>65.09769728850851</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>161.1943550809775</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.8886432343709</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9042316110001</v>
+        <v>127.4054940681564</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>73.98697490009349</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5539916918268659</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24406,10 +24406,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>46.52001509067868</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>156.0069435121837</v>
       </c>
       <c r="S25" t="n">
         <v>215.7662703869161</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>15.21025114981103</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>285.8179891300135</v>
+        <v>414.24734057917</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>328.6662182453155</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>169.7876991966149</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,19 +24488,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>83.57304016233765</v>
+        <v>73.87642050822478</v>
       </c>
       <c r="S26" t="n">
-        <v>184.9702119079427</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.4758494769445</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2612211529593</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24522,19 +24522,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>86.36341272567478</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24567,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>65.09769728850851</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>161.1943550809775</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.8886432343709</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>127.4054940681564</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.517564626322</v>
@@ -24655,10 +24655,10 @@
         <v>225.9228173909699</v>
       </c>
       <c r="U28" t="n">
-        <v>41.40844748274884</v>
+        <v>286.293206734738</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>13.41726144577791</v>
       </c>
     </row>
     <row r="29">
@@ -24680,16 +24680,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>324.0974385127338</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>169.7876991966149</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24728,22 @@
         <v>83.57304016233765</v>
       </c>
       <c r="S29" t="n">
-        <v>184.9702119079427</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.4758494769445</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2612211529593</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>346.9790005143195</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24762,10 +24762,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>93.00183845017625</v>
       </c>
       <c r="E30" t="n">
-        <v>93.0018384501758</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24841,10 +24841,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24859,7 +24859,7 @@
         <v>141.2136028008182</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>59.8887585546036</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>156.0069435121837</v>
       </c>
       <c r="S31" t="n">
-        <v>215.7662703869161</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>83.83860903453794</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.293206734738</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>231.1896835386599</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24926,16 +24926,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>263.9744723376991</v>
       </c>
       <c r="G32" t="n">
-        <v>414.24734057917</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>328.6662182453155</v>
       </c>
       <c r="I32" t="n">
-        <v>169.7876991966149</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,22 +24962,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>16.34762325276729</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>184.9702119079427</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>218.4758494769445</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2612211529593</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25008,10 +25008,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>20.62373882394756</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>106.7817552442088</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,19 +25041,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>65.09769728850851</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>161.1943550809775</v>
       </c>
       <c r="T33" t="n">
         <v>197.8886432343709</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9042316110001</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>127.7933148266422</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.517564626322</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>158.0180851617145</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>141.2136028008182</v>
+        <v>136.9736711116654</v>
       </c>
       <c r="J34" t="n">
         <v>59.8887585546036</v>
@@ -25120,13 +25120,13 @@
         <v>46.52001509067868</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>156.0069435121837</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>215.7662703869161</v>
       </c>
       <c r="T34" t="n">
-        <v>100.6736287142525</v>
+        <v>225.9228173909699</v>
       </c>
       <c r="U34" t="n">
         <v>286.293206734738</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,7 +25169,7 @@
         <v>1.87263275134768</v>
       </c>
       <c r="H35" t="n">
-        <v>153.5174684502787</v>
+        <v>328.6662182453155</v>
       </c>
       <c r="I35" t="n">
         <v>169.7876991966149</v>
@@ -25205,13 +25205,13 @@
         <v>184.9702119079427</v>
       </c>
       <c r="T35" t="n">
-        <v>218.4758494769445</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.39631653135953</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>78.49999142458095</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25245,13 +25245,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.778830019595</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>106.7817552442088</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>69.95455356464927</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,19 +25284,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.8886432343709</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9042316110001</v>
+        <v>19.09835409582502</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>35.2430345214747</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>136.6077483156788</v>
       </c>
       <c r="G37" t="n">
         <v>167.517564626322</v>
@@ -25354,16 +25354,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.52001509067868</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>156.0069435121837</v>
       </c>
       <c r="S37" t="n">
-        <v>215.7662703869161</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9228173909699</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.293206734738</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25439,25 +25439,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>172.1752587010781</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.4758494769445</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2612211529593</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>202.3022267250512</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25467,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>112.225596017638</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.778830019595</v>
       </c>
       <c r="H39" t="n">
-        <v>69.08007576447116</v>
+        <v>106.7817552442088</v>
       </c>
       <c r="I39" t="n">
         <v>69.95455356464927</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>65.09769728850851</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>161.1943550809775</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9042316110001</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>75.76605409378516</v>
       </c>
       <c r="C40" t="n">
-        <v>68.64105205684281</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>83.57304016233765</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>184.9702119079427</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.4758494769445</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>184.6608844279884</v>
       </c>
       <c r="Y41" t="n">
-        <v>154.8932277837571</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25716,13 +25716,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>11.52708809826999</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>106.7817552442088</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>65.09769728850851</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>161.1943550809775</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25764,16 +25764,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>80.0194887125329</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>29.61560856764117</v>
+        <v>167.517564626322</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>158.0180851617145</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>141.2136028008182</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>59.8887585546036</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>225.9228173909699</v>
       </c>
       <c r="U43" t="n">
-        <v>286.293206734738</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>7.855457511015629</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363854.9266664991</v>
+        <v>363854.9266664992</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>628719.910670833</v>
+        <v>628719.9106708331</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>628719.9106708331</v>
+        <v>628719.910670833</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>546460.190294811</v>
+        <v>546460.1902948109</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>546460.190294811</v>
+        <v>546460.1902948109</v>
       </c>
     </row>
     <row r="15">
@@ -26314,13 +26314,13 @@
         <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698524</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="E2" t="n">
-        <v>223142.5282744556</v>
+        <v>223142.5282744557</v>
       </c>
       <c r="F2" t="n">
         <v>223142.5282744556</v>
@@ -26329,25 +26329,25 @@
         <v>223142.5282744557</v>
       </c>
       <c r="H2" t="n">
+        <v>364692.9343893802</v>
+      </c>
+      <c r="I2" t="n">
         <v>364692.9343893803</v>
       </c>
-      <c r="I2" t="n">
-        <v>364692.9343893804</v>
-      </c>
       <c r="J2" t="n">
-        <v>364692.93438938</v>
+        <v>364692.9343893803</v>
       </c>
       <c r="K2" t="n">
-        <v>364692.9343893803</v>
+        <v>364692.9343893802</v>
       </c>
       <c r="L2" t="n">
-        <v>364692.9343893803</v>
+        <v>364692.9343893802</v>
       </c>
       <c r="M2" t="n">
+        <v>320731.3028815495</v>
+      </c>
+      <c r="N2" t="n">
         <v>320731.3028815496</v>
-      </c>
-      <c r="N2" t="n">
-        <v>320731.3028815493</v>
       </c>
       <c r="O2" t="n">
         <v>320731.3028815496</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111262.407544317</v>
+        <v>111262.4075443169</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>48850.52504141626</v>
+        <v>48488.61706562088</v>
       </c>
       <c r="F4" t="n">
-        <v>48850.52504141627</v>
+        <v>48488.61706562087</v>
       </c>
       <c r="G4" t="n">
-        <v>48850.52504141627</v>
+        <v>48488.61706562087</v>
       </c>
       <c r="H4" t="n">
-        <v>114375.6590942281</v>
+        <v>113529.4223269038</v>
       </c>
       <c r="I4" t="n">
-        <v>114375.6590942281</v>
+        <v>113529.4223269038</v>
       </c>
       <c r="J4" t="n">
-        <v>114375.6590942281</v>
+        <v>113529.4223269038</v>
       </c>
       <c r="K4" t="n">
-        <v>114375.6590942281</v>
+        <v>113529.4223269038</v>
       </c>
       <c r="L4" t="n">
-        <v>114375.6590942281</v>
+        <v>113529.4223269038</v>
       </c>
       <c r="M4" t="n">
-        <v>94025.36920956196</v>
+        <v>93329.55153636969</v>
       </c>
       <c r="N4" t="n">
-        <v>94025.36920956196</v>
+        <v>93329.55153636966</v>
       </c>
       <c r="O4" t="n">
-        <v>94025.36920956196</v>
+        <v>93329.55153636969</v>
       </c>
       <c r="P4" t="n">
-        <v>24725.53738906893</v>
+        <v>24541.94143033794</v>
       </c>
     </row>
     <row r="5">
@@ -26494,7 +26494,7 @@
         <v>38582.32273517757</v>
       </c>
       <c r="K5" t="n">
-        <v>38582.32273517758</v>
+        <v>38582.32273517757</v>
       </c>
       <c r="L5" t="n">
         <v>38582.32273517757</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145052.5826348691</v>
+        <v>145575.3469568937</v>
       </c>
       <c r="C6" t="n">
-        <v>145052.5826348691</v>
+        <v>145575.3469568935</v>
       </c>
       <c r="D6" t="n">
-        <v>145052.5826348692</v>
+        <v>145575.3469568936</v>
       </c>
       <c r="E6" t="n">
-        <v>-88374.84369421809</v>
+        <v>-88012.93571842261</v>
       </c>
       <c r="F6" t="n">
-        <v>160782.0627337934</v>
+        <v>161143.9707095888</v>
       </c>
       <c r="G6" t="n">
-        <v>160782.0627337934</v>
+        <v>161143.9707095888</v>
       </c>
       <c r="H6" t="n">
-        <v>100472.5450156577</v>
+        <v>101318.7817829818</v>
       </c>
       <c r="I6" t="n">
-        <v>211734.9525599747</v>
+        <v>212581.1893272989</v>
       </c>
       <c r="J6" t="n">
-        <v>211734.9525599743</v>
+        <v>212581.1893272989</v>
       </c>
       <c r="K6" t="n">
-        <v>211734.9525599745</v>
+        <v>212581.1893272988</v>
       </c>
       <c r="L6" t="n">
-        <v>211734.9525599746</v>
+        <v>212581.1893272988</v>
       </c>
       <c r="M6" t="n">
-        <v>195910.3977015518</v>
+        <v>196606.215374744</v>
       </c>
       <c r="N6" t="n">
-        <v>195910.3977015515</v>
+        <v>196606.2153747441</v>
       </c>
       <c r="O6" t="n">
-        <v>195910.3977015518</v>
+        <v>196606.2153747441</v>
       </c>
       <c r="P6" t="n">
-        <v>140084.0158382323</v>
+        <v>140267.6117969633</v>
       </c>
     </row>
   </sheetData>
@@ -26814,7 +26814,7 @@
         <v>540.446858563706</v>
       </c>
       <c r="K4" t="n">
-        <v>540.4468585637061</v>
+        <v>540.446858563706</v>
       </c>
       <c r="L4" t="n">
         <v>540.446858563706</v>
@@ -35413,10 +35413,10 @@
         <v>128.0721507358836</v>
       </c>
       <c r="L11" t="n">
-        <v>69.36316612540796</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="M11" t="n">
-        <v>128.0721507358836</v>
+        <v>69.36316612540787</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>52.60396025542649</v>
       </c>
       <c r="K12" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>0.9448094405880454</v>
       </c>
       <c r="N12" t="n">
-        <v>69.34874868690416</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="P12" t="n">
         <v>128.0721507358836</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.0721507358836</v>
+        <v>69.34874868690405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>32.73269250782473</v>
+        <v>32.73269250782474</v>
       </c>
       <c r="L13" t="n">
         <v>97.97388461817641</v>
@@ -35647,22 +35647,22 @@
         <v>77.62620633924772</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>69.36316612540796</v>
+      </c>
+      <c r="O14" t="n">
         <v>128.0721507358836</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>128.0721507358836</v>
-      </c>
-      <c r="O14" t="n">
-        <v>69.36316612540793</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>103.9802966541466</v>
@@ -35726,22 +35726,22 @@
         <v>52.60396025542649</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>54.7695556087968</v>
+      </c>
+      <c r="M15" t="n">
         <v>128.0721507358836</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9448094405880454</v>
-      </c>
       <c r="N15" t="n">
-        <v>128.0721507358836</v>
+        <v>15.52400251869537</v>
       </c>
       <c r="O15" t="n">
         <v>128.0721507358836</v>
       </c>
       <c r="P15" t="n">
-        <v>69.3487486869041</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>77.62620633924772</v>
       </c>
       <c r="K17" t="n">
         <v>128.0721507358836</v>
@@ -35890,10 +35890,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>45.27131204367096</v>
       </c>
       <c r="N17" t="n">
-        <v>18.91722172877205</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>128.0721507358836</v>
@@ -35902,7 +35902,7 @@
         <v>128.0721507358836</v>
       </c>
       <c r="Q17" t="n">
-        <v>103.9802966541466</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.60396025542649</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>122.8975183829187</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9448094405880454</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="N18" t="n">
-        <v>69.34874868690414</v>
+        <v>128.0721507358836</v>
       </c>
       <c r="O18" t="n">
         <v>128.0721507358836</v>
       </c>
       <c r="P18" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.0721507358836</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>77.62620633924772</v>
+        <v>77.62620633924766</v>
       </c>
       <c r="K20" t="n">
         <v>238.3060095194433</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.60396025542649</v>
       </c>
       <c r="K21" t="n">
-        <v>217.8083882421504</v>
+        <v>92.99773748375294</v>
       </c>
       <c r="L21" t="n">
         <v>354.8948999301252</v>
@@ -36212,13 +36212,13 @@
         <v>494.8663768622489</v>
       </c>
       <c r="O21" t="n">
-        <v>171.2354884510983</v>
+        <v>385.6195111468309</v>
       </c>
       <c r="P21" t="n">
         <v>292.3188386762068</v>
       </c>
       <c r="Q21" t="n">
-        <v>142.1773321927616</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.60396025542649</v>
       </c>
       <c r="K24" t="n">
-        <v>3.424365546417844</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>354.8948999301252</v>
@@ -36455,7 +36455,7 @@
         <v>292.3188386762068</v>
       </c>
       <c r="Q24" t="n">
-        <v>142.1773321927616</v>
+        <v>92.99773748375307</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>52.60396025542649</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>217.8083882421504</v>
@@ -36689,10 +36689,10 @@
         <v>385.6195111468309</v>
       </c>
       <c r="P27" t="n">
-        <v>25.3308557250478</v>
+        <v>220.112148173236</v>
       </c>
       <c r="Q27" t="n">
-        <v>142.1773321927616</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>217.8083882421504</v>
+        <v>145.6016977391794</v>
       </c>
       <c r="L30" t="n">
         <v>354.8948999301252</v>
       </c>
       <c r="M30" t="n">
-        <v>394.4431826876175</v>
+        <v>466.649873190588</v>
       </c>
       <c r="N30" t="n">
         <v>494.8663768622489</v>
@@ -37151,10 +37151,10 @@
         <v>217.8083882421504</v>
       </c>
       <c r="L33" t="n">
-        <v>354.8948999301252</v>
+        <v>140.5108772343927</v>
       </c>
       <c r="M33" t="n">
-        <v>394.443182687617</v>
+        <v>466.649873190588</v>
       </c>
       <c r="N33" t="n">
         <v>494.8663768622489</v>
@@ -37166,7 +37166,7 @@
         <v>292.3188386762068</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>142.1773321927616</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,10 +37318,10 @@
         <v>396.2509745919698</v>
       </c>
       <c r="O35" t="n">
-        <v>245.3501237926096</v>
+        <v>3.01701273845818</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>242.3331110541514</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>52.60396025542649</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>217.8083882421504</v>
       </c>
       <c r="L36" t="n">
         <v>354.8948999301252</v>
@@ -37394,10 +37394,10 @@
         <v>412.3747078278224</v>
       </c>
       <c r="N36" t="n">
-        <v>135.0253091181979</v>
+        <v>302.8364320228784</v>
       </c>
       <c r="O36" t="n">
-        <v>385.6195111468309</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>292.3188386762068</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>77.62620633924772</v>
       </c>
       <c r="K38" t="n">
-        <v>155.1316529764197</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>348.4443515527614</v>
+        <v>321.9695015357869</v>
       </c>
       <c r="M38" t="n">
         <v>404.4857674978257</v>
@@ -37561,7 +37561,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>103.9802966541466</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>354.8948999301252</v>
       </c>
       <c r="M39" t="n">
-        <v>0.9448094405880454</v>
+        <v>412.3747078278224</v>
       </c>
       <c r="N39" t="n">
-        <v>328.6468192632819</v>
+        <v>412.3747078278224</v>
       </c>
       <c r="O39" t="n">
-        <v>385.6195111468309</v>
+        <v>182.7805628712628</v>
       </c>
       <c r="P39" t="n">
-        <v>292.3188386762068</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>77.62620633924772</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>157.2625968208831</v>
+        <v>348.4443515527614</v>
       </c>
       <c r="M41" t="n">
         <v>404.4857674978257</v>
@@ -37795,10 +37795,10 @@
         <v>328.5244803356331</v>
       </c>
       <c r="P41" t="n">
-        <v>242.3331110541514</v>
+        <v>77.50544663717204</v>
       </c>
       <c r="Q41" t="n">
-        <v>103.9802966541466</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.60396025542649</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>217.8083882421504</v>
       </c>
       <c r="L42" t="n">
         <v>354.8948999301252</v>
       </c>
       <c r="M42" t="n">
-        <v>412.3747078278224</v>
+        <v>119.9623876149193</v>
       </c>
       <c r="N42" t="n">
         <v>412.3747078278224</v>
@@ -37874,10 +37874,10 @@
         <v>385.6195111468309</v>
       </c>
       <c r="P42" t="n">
-        <v>14.9694399665823</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>142.1773321927616</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1228242.144029042</v>
+        <v>1170175.969465701</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4018048.52787897</v>
+        <v>4018048.527878967</v>
       </c>
     </row>
     <row r="8">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>111.5378952464254</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>126.6324877911279</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>84.52686811462453</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>27.01102713180089</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,67 +1448,67 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>45.93577387021163</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>65.6021213762138</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>41.30362077979206</v>
-      </c>
-      <c r="I12" t="n">
-        <v>70.23427446663335</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>126.6324877911279</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
     </row>
     <row r="13">
@@ -1527,70 +1527,70 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="W13" t="n">
         <v>111.5378952464254</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>126.6324877911279</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>27.01102713180089</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>84.52686811462453</v>
       </c>
       <c r="S14" t="n">
-        <v>27.01102713180089</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,70 +1685,70 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>65.70804203163156</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>106.860219629708</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>65.6021213762138</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="W15" t="n">
         <v>126.6324877911279</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>41.30362077979206</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>70.23427446663335</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>126.6324877911279</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>111.5378952464254</v>
       </c>
       <c r="F16" t="n">
-        <v>111.5378952464254</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>126.6324877911279</v>
@@ -1785,43 +1785,43 @@
         <v>126.6324877911279</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>126.6324877911279</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.4265956089642</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>253.1340009745286</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>170.3730963212529</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>129.0096825666498</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7869543973851</v>
+        <v>54.01296685975811</v>
       </c>
       <c r="H18" t="n">
-        <v>106.860219629708</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4.21346319931203</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>65.6021213762138</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>161.3452618351053</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.5243758317457</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>158.0786429699361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>141.4184343239233</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>92.86375264941208</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>24.41390549420417</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.4265956089642</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>328.8217256262298</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>170.3730963212529</v>
+        <v>143.2118113191236</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>84.52686811462453</v>
       </c>
       <c r="S20" t="n">
-        <v>49.4598688483895</v>
+        <v>185.3162267442746</v>
       </c>
       <c r="T20" t="n">
-        <v>218.5423192496727</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>73.68577976225674</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.7869543973851</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>106.860219629708</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>65.6021213762138</v>
       </c>
       <c r="S21" t="n">
-        <v>161.3452618351053</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>139.16826935363</v>
+        <v>197.9213901781828</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9047661095389</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>215.8849711214363</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>23.412744174545</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>204.9123602832182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>20.35684816195356</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>414.2625249932713</v>
       </c>
       <c r="H23" t="n">
-        <v>328.8217256262298</v>
+        <v>251.9395419810329</v>
       </c>
       <c r="I23" t="n">
-        <v>170.3730963212529</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>185.3162267442746</v>
       </c>
       <c r="T23" t="n">
-        <v>218.5423192496727</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2624359060874</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2417,7 +2417,7 @@
         <v>106.860219629708</v>
       </c>
       <c r="I24" t="n">
-        <v>70.23427446663335</v>
+        <v>7.276802568137471</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>65.6021213762138</v>
       </c>
       <c r="S24" t="n">
-        <v>161.3452618351053</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.9213901781828</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9047661095389</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>159.0835960414925</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>178.4899347651323</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.5243758317457</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2935782550338</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>205.1417803647755</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.2625249932713</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>218.5423192496727</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2624359060874</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>378.492781093026</v>
+        <v>118.7275624372028</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7869543973851</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>106.860219629708</v>
       </c>
       <c r="I27" t="n">
-        <v>70.23427446663335</v>
+        <v>50.39228438362002</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>65.6021213762138</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.9213901781828</v>
       </c>
       <c r="U27" t="n">
-        <v>81.10435002261792</v>
+        <v>225.9047661095389</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>17.21686679991517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.5243758317457</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>158.0786429699361</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>186.9227530033041</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>313.6578296013705</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.2625249932713</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>322.13405519023</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>84.52686811462453</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.5423192496727</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2624359060874</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>36.72653697532586</v>
       </c>
       <c r="G30" t="n">
-        <v>120.900976515474</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>106.860219629708</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>70.23427446663335</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>65.6021213762138</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>161.3452618351053</v>
       </c>
       <c r="T30" t="n">
         <v>197.9213901781828</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9047661095389</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>204.9123602832183</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.9123602832183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>175.4765132468509</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>84.52686811462453</v>
       </c>
       <c r="S32" t="n">
-        <v>59.55132812055493</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.5423192496727</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2624359060874</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3113,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>35.38800388861168</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3125,10 +3125,10 @@
         <v>136.7869543973851</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>106.860219629708</v>
       </c>
       <c r="I33" t="n">
-        <v>70.23427446663335</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>65.6021213762138</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>161.3452618351053</v>
       </c>
       <c r="T33" t="n">
-        <v>197.9213901781828</v>
+        <v>56.60287450262965</v>
       </c>
       <c r="U33" t="n">
         <v>225.9047661095389</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2935782550338</v>
+        <v>239.2977152959813</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1417803647755</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>84.52686811462453</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3162267442746</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2624359060874</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>59.1753361485585</v>
+        <v>353.8070043480931</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3362,10 +3362,10 @@
         <v>136.7869543973851</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>106.860219629708</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>70.23427446663335</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>65.6021213762138</v>
       </c>
       <c r="S36" t="n">
-        <v>161.3452618351053</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.9213901781828</v>
+        <v>187.2175341682963</v>
       </c>
       <c r="U36" t="n">
-        <v>191.9995259713484</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>95.71840731643566</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>215.8849711214363</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.8507052677144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.4265956089642</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>328.8217256262298</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>84.52686811462453</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.5423192496727</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2624359060874</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>244.9612215636917</v>
       </c>
       <c r="X38" t="n">
-        <v>173.6611838165263</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.50841253393177</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>65.6021213762138</v>
       </c>
       <c r="S39" t="n">
-        <v>102.5921410105524</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>197.9213901781828</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9047661095389</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5243758317457</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>158.0786429699361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>20.41129179519612</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>165.1694157913027</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>84.52686811462453</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>27.01102713180089</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="V41" t="n">
-        <v>111.5378952464254</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="W41" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>111.5378952464254</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>65.6021213762138</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>126.6324877911279</v>
       </c>
       <c r="V42" t="n">
-        <v>45.93577387021163</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>126.6324877911279</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.0903606648388</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>64.44753458158665</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>111.5378952464254</v>
       </c>
       <c r="U43" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,67 +3976,67 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="C44" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>84.52686811462453</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>111.5378952464254</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>126.6324877911279</v>
+        <v>27.01102713180089</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>111.5378952464254</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>111.5378952464254</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>126.6324877911279</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>126.6324877911279</v>
       </c>
       <c r="H46" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>126.6324877911279</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>111.5378952464254</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378.6183473350895</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="C11" t="n">
-        <v>250.7067435056674</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="D11" t="n">
-        <v>250.7067435056674</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="E11" t="n">
         <v>138.0422028527124</v>
       </c>
       <c r="F11" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="G11" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="H11" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="J11" t="n">
-        <v>10.13059902329023</v>
+        <v>85.70467271448376</v>
       </c>
       <c r="K11" t="n">
-        <v>135.4967619365069</v>
+        <v>85.70467271448376</v>
       </c>
       <c r="L11" t="n">
-        <v>135.4967619365069</v>
+        <v>211.0708356277004</v>
       </c>
       <c r="M11" t="n">
-        <v>135.4967619365069</v>
+        <v>279.8466430029823</v>
       </c>
       <c r="N11" t="n">
-        <v>154.4804800897656</v>
+        <v>279.8466430029823</v>
       </c>
       <c r="O11" t="n">
         <v>279.8466430029823</v>
@@ -5062,31 +5062,31 @@
         <v>405.2128059161989</v>
       </c>
       <c r="Q11" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="R11" t="n">
-        <v>506.5299511645117</v>
+        <v>421.1492763012546</v>
       </c>
       <c r="S11" t="n">
-        <v>506.5299511645117</v>
+        <v>421.1492763012546</v>
       </c>
       <c r="T11" t="n">
-        <v>378.6183473350895</v>
+        <v>421.1492763012546</v>
       </c>
       <c r="U11" t="n">
-        <v>378.6183473350895</v>
+        <v>293.2376724718325</v>
       </c>
       <c r="V11" t="n">
-        <v>378.6183473350895</v>
+        <v>293.2376724718325</v>
       </c>
       <c r="W11" t="n">
-        <v>378.6183473350895</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="X11" t="n">
-        <v>378.6183473350895</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="Y11" t="n">
-        <v>378.6183473350895</v>
+        <v>265.9538066821346</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.7951396762452</v>
+        <v>56.53037060936259</v>
       </c>
       <c r="C12" t="n">
-        <v>122.7951396762452</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="D12" t="n">
-        <v>122.7951396762452</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="E12" t="n">
-        <v>122.7951396762452</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="F12" t="n">
-        <v>122.7951396762452</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="G12" t="n">
-        <v>122.7951396762452</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="H12" t="n">
-        <v>81.07431060574817</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="I12" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="J12" t="n">
-        <v>10.13059902329023</v>
+        <v>61.44861989652648</v>
       </c>
       <c r="K12" t="n">
-        <v>130.4314624248617</v>
+        <v>186.8147828097431</v>
       </c>
       <c r="L12" t="n">
+        <v>242.5207479489121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>242.5207479489121</v>
+      </c>
+      <c r="N12" t="n">
         <v>255.7976253380784</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>255.7976253380784</v>
       </c>
-      <c r="N12" t="n">
-        <v>381.163788251295</v>
-      </c>
-      <c r="O12" t="n">
-        <v>506.5299511645117</v>
-      </c>
       <c r="P12" t="n">
-        <v>506.5299511645117</v>
+        <v>381.1637882512951</v>
       </c>
       <c r="Q12" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="R12" t="n">
-        <v>506.5299511645117</v>
+        <v>440.2651820976291</v>
       </c>
       <c r="S12" t="n">
-        <v>506.5299511645117</v>
+        <v>440.2651820976291</v>
       </c>
       <c r="T12" t="n">
-        <v>506.5299511645117</v>
+        <v>312.3535782682069</v>
       </c>
       <c r="U12" t="n">
-        <v>506.5299511645117</v>
+        <v>312.3535782682069</v>
       </c>
       <c r="V12" t="n">
-        <v>378.6183473350895</v>
+        <v>312.3535782682069</v>
       </c>
       <c r="W12" t="n">
-        <v>250.7067435056674</v>
+        <v>184.4419744387848</v>
       </c>
       <c r="X12" t="n">
-        <v>250.7067435056674</v>
+        <v>184.4419744387848</v>
       </c>
       <c r="Y12" t="n">
-        <v>250.7067435056674</v>
+        <v>56.53037060936259</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.9538066821345</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="C13" t="n">
-        <v>265.9538066821345</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="D13" t="n">
-        <v>138.0422028527124</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="E13" t="n">
-        <v>138.0422028527124</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="F13" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="G13" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="H13" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="I13" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="J13" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="K13" t="n">
-        <v>41.75253975820384</v>
+        <v>41.75253975820385</v>
       </c>
       <c r="L13" t="n">
         <v>137.7441714487072</v>
       </c>
       <c r="M13" t="n">
-        <v>249.343011140951</v>
+        <v>249.3430111409509</v>
       </c>
       <c r="N13" t="n">
         <v>363.7228962828377</v>
@@ -5217,34 +5217,34 @@
         <v>453.3549376177507</v>
       </c>
       <c r="P13" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="Q13" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="R13" t="n">
-        <v>393.8654105115567</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="S13" t="n">
-        <v>393.8654105115567</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="T13" t="n">
-        <v>265.9538066821345</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="U13" t="n">
-        <v>265.9538066821345</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="V13" t="n">
-        <v>265.9538066821345</v>
+        <v>250.7067435056674</v>
       </c>
       <c r="W13" t="n">
-        <v>265.9538066821345</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="X13" t="n">
-        <v>265.9538066821345</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.9538066821345</v>
+        <v>138.0422028527124</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>138.0422028527124</v>
+        <v>293.2376724718325</v>
       </c>
       <c r="C14" t="n">
-        <v>138.0422028527124</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="D14" t="n">
         <v>138.0422028527124</v>
@@ -5266,64 +5266,64 @@
         <v>138.0422028527124</v>
       </c>
       <c r="F14" t="n">
-        <v>138.0422028527124</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="G14" t="n">
-        <v>138.0422028527124</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="H14" t="n">
-        <v>138.0422028527124</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="J14" t="n">
-        <v>85.70467271448376</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="K14" t="n">
-        <v>85.70467271448376</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="L14" t="n">
-        <v>211.0708356277004</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="M14" t="n">
-        <v>336.4369985409171</v>
+        <v>135.4967619365069</v>
       </c>
       <c r="N14" t="n">
-        <v>405.2128059161989</v>
+        <v>154.4804800897656</v>
       </c>
       <c r="O14" t="n">
-        <v>405.2128059161989</v>
+        <v>279.8466430029823</v>
       </c>
       <c r="P14" t="n">
         <v>405.2128059161989</v>
       </c>
       <c r="Q14" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="R14" t="n">
         <v>421.1492763012546</v>
       </c>
       <c r="S14" t="n">
-        <v>393.8654105115567</v>
+        <v>293.2376724718325</v>
       </c>
       <c r="T14" t="n">
-        <v>393.8654105115567</v>
+        <v>293.2376724718325</v>
       </c>
       <c r="U14" t="n">
-        <v>393.8654105115567</v>
+        <v>293.2376724718325</v>
       </c>
       <c r="V14" t="n">
-        <v>393.8654105115567</v>
+        <v>293.2376724718325</v>
       </c>
       <c r="W14" t="n">
-        <v>393.8654105115567</v>
+        <v>293.2376724718325</v>
       </c>
       <c r="X14" t="n">
-        <v>265.9538066821345</v>
+        <v>293.2376724718325</v>
       </c>
       <c r="Y14" t="n">
-        <v>138.0422028527124</v>
+        <v>293.2376724718325</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>250.7067435056674</v>
+        <v>184.4419744387848</v>
       </c>
       <c r="C15" t="n">
-        <v>250.7067435056674</v>
+        <v>184.4419744387848</v>
       </c>
       <c r="D15" t="n">
-        <v>250.7067435056674</v>
+        <v>184.4419744387848</v>
       </c>
       <c r="E15" t="n">
-        <v>122.7951396762452</v>
+        <v>184.4419744387848</v>
       </c>
       <c r="F15" t="n">
-        <v>122.7951396762452</v>
+        <v>118.0702148108741</v>
       </c>
       <c r="G15" t="n">
-        <v>81.07431060574817</v>
+        <v>118.0702148108741</v>
       </c>
       <c r="H15" t="n">
-        <v>81.07431060574817</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="I15" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="J15" t="n">
         <v>61.44861989652648</v>
@@ -5372,37 +5372,37 @@
         <v>255.7976253380784</v>
       </c>
       <c r="O15" t="n">
-        <v>381.163788251295</v>
+        <v>255.7976253380784</v>
       </c>
       <c r="P15" t="n">
-        <v>381.163788251295</v>
+        <v>381.1637882512951</v>
       </c>
       <c r="Q15" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="R15" t="n">
-        <v>506.5299511645117</v>
+        <v>440.2651820976291</v>
       </c>
       <c r="S15" t="n">
-        <v>506.5299511645117</v>
+        <v>440.2651820976291</v>
       </c>
       <c r="T15" t="n">
-        <v>378.6183473350895</v>
+        <v>440.2651820976291</v>
       </c>
       <c r="U15" t="n">
-        <v>378.6183473350895</v>
+        <v>440.2651820976291</v>
       </c>
       <c r="V15" t="n">
-        <v>378.6183473350895</v>
+        <v>312.3535782682069</v>
       </c>
       <c r="W15" t="n">
-        <v>378.6183473350895</v>
+        <v>184.4419744387848</v>
       </c>
       <c r="X15" t="n">
-        <v>378.6183473350895</v>
+        <v>184.4419744387848</v>
       </c>
       <c r="Y15" t="n">
-        <v>378.6183473350895</v>
+        <v>184.4419744387848</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.5299511645117</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="C16" t="n">
-        <v>506.5299511645117</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="D16" t="n">
-        <v>506.5299511645117</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="E16" t="n">
-        <v>506.5299511645117</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="F16" t="n">
-        <v>393.8654105115567</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="G16" t="n">
-        <v>265.9538066821345</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="H16" t="n">
-        <v>138.0422028527124</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="I16" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="J16" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="K16" t="n">
         <v>41.75253975820384</v>
@@ -5445,7 +5445,7 @@
         <v>137.7441714487072</v>
       </c>
       <c r="M16" t="n">
-        <v>249.3430111409509</v>
+        <v>249.343011140951</v>
       </c>
       <c r="N16" t="n">
         <v>363.7228962828377</v>
@@ -5454,34 +5454,34 @@
         <v>453.3549376177507</v>
       </c>
       <c r="P16" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="Q16" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="R16" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="S16" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="T16" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="U16" t="n">
-        <v>506.5299511645117</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="V16" t="n">
-        <v>506.5299511645117</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="W16" t="n">
-        <v>506.5299511645117</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="X16" t="n">
-        <v>506.5299511645117</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.5299511645117</v>
+        <v>378.6183473350896</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>391.0198262554676</v>
+        <v>874.1012921989654</v>
       </c>
       <c r="C17" t="n">
-        <v>391.0198262554676</v>
+        <v>874.1012921989654</v>
       </c>
       <c r="D17" t="n">
-        <v>32.75412764871714</v>
+        <v>874.1012921989654</v>
       </c>
       <c r="E17" t="n">
-        <v>32.75412764871714</v>
+        <v>874.1012921989654</v>
       </c>
       <c r="F17" t="n">
-        <v>32.75412764871714</v>
+        <v>874.1012921989654</v>
       </c>
       <c r="G17" t="n">
-        <v>32.75412764871714</v>
+        <v>460.5390744121328</v>
       </c>
       <c r="H17" t="n">
-        <v>32.75412764871714</v>
+        <v>204.8481643368514</v>
       </c>
       <c r="I17" t="n">
         <v>32.75412764871714</v>
       </c>
       <c r="J17" t="n">
-        <v>32.75412764871714</v>
+        <v>108.3282013399107</v>
       </c>
       <c r="K17" t="n">
-        <v>266.7648778018879</v>
+        <v>108.3282013399107</v>
       </c>
       <c r="L17" t="n">
-        <v>511.2336717154862</v>
+        <v>450.9158570931462</v>
       </c>
       <c r="M17" t="n">
-        <v>909.0349937883052</v>
+        <v>586.3285771779144</v>
       </c>
       <c r="N17" t="n">
-        <v>1298.641159594927</v>
+        <v>975.9347429845366</v>
       </c>
       <c r="O17" t="n">
         <v>1298.641159594927</v>
@@ -5551,16 +5551,16 @@
         <v>1637.706382435857</v>
       </c>
       <c r="V17" t="n">
-        <v>1507.393571762473</v>
+        <v>1637.706382435857</v>
       </c>
       <c r="W17" t="n">
-        <v>1154.624916492359</v>
+        <v>1637.706382435857</v>
       </c>
       <c r="X17" t="n">
-        <v>781.1591582312794</v>
+        <v>1264.240624174777</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.0198262554676</v>
+        <v>874.1012921989654</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>283.1184076753891</v>
+        <v>557.2346769478045</v>
       </c>
       <c r="C18" t="n">
-        <v>283.1184076753891</v>
+        <v>382.7816476666775</v>
       </c>
       <c r="D18" t="n">
-        <v>283.1184076753891</v>
+        <v>233.8472380054262</v>
       </c>
       <c r="E18" t="n">
-        <v>283.1184076753891</v>
+        <v>233.8472380054262</v>
       </c>
       <c r="F18" t="n">
-        <v>283.1184076753891</v>
+        <v>87.31268003231119</v>
       </c>
       <c r="G18" t="n">
-        <v>144.9497668699495</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="H18" t="n">
-        <v>37.01015108236565</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="I18" t="n">
         <v>32.75412764871714</v>
@@ -5597,13 +5597,13 @@
         <v>84.07214852195338</v>
       </c>
       <c r="K18" t="n">
-        <v>84.07214852195338</v>
+        <v>298.4036631232282</v>
       </c>
       <c r="L18" t="n">
-        <v>433.6717163419246</v>
+        <v>648.0032309431995</v>
       </c>
       <c r="M18" t="n">
-        <v>564.6646384730167</v>
+        <v>648.0032309431995</v>
       </c>
       <c r="N18" t="n">
         <v>969.9969681258913</v>
@@ -5618,28 +5618,28 @@
         <v>1637.706382435857</v>
       </c>
       <c r="R18" t="n">
-        <v>1571.441613368974</v>
+        <v>1637.706382435857</v>
       </c>
       <c r="S18" t="n">
-        <v>1408.466601414323</v>
+        <v>1474.731370481205</v>
       </c>
       <c r="T18" t="n">
-        <v>1208.546005274744</v>
+        <v>1274.810774341626</v>
       </c>
       <c r="U18" t="n">
-        <v>980.3593728408662</v>
+        <v>1046.624141907749</v>
       </c>
       <c r="V18" t="n">
-        <v>745.2072646091235</v>
+        <v>811.472033676006</v>
       </c>
       <c r="W18" t="n">
-        <v>490.9699078809219</v>
+        <v>557.2346769478045</v>
       </c>
       <c r="X18" t="n">
-        <v>283.1184076753891</v>
+        <v>557.2346769478045</v>
       </c>
       <c r="Y18" t="n">
-        <v>283.1184076753891</v>
+        <v>557.2346769478045</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>504.4929691897324</v>
+        <v>180.6672212311103</v>
       </c>
       <c r="C19" t="n">
-        <v>504.4929691897324</v>
+        <v>180.6672212311103</v>
       </c>
       <c r="D19" t="n">
-        <v>504.4929691897324</v>
+        <v>180.6672212311103</v>
       </c>
       <c r="E19" t="n">
-        <v>504.4929691897324</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="F19" t="n">
-        <v>504.4929691897324</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="G19" t="n">
-        <v>335.2764279455448</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="H19" t="n">
-        <v>175.6010310062155</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="I19" t="n">
         <v>32.75412764871714</v>
@@ -5703,22 +5703,22 @@
         <v>529.1534797899386</v>
       </c>
       <c r="T19" t="n">
-        <v>529.1534797899386</v>
+        <v>435.3517094369971</v>
       </c>
       <c r="U19" t="n">
-        <v>529.1534797899386</v>
+        <v>435.3517094369971</v>
       </c>
       <c r="V19" t="n">
-        <v>529.1534797899386</v>
+        <v>180.6672212311103</v>
       </c>
       <c r="W19" t="n">
-        <v>504.4929691897324</v>
+        <v>180.6672212311103</v>
       </c>
       <c r="X19" t="n">
-        <v>504.4929691897324</v>
+        <v>180.6672212311103</v>
       </c>
       <c r="Y19" t="n">
-        <v>504.4929691897324</v>
+        <v>180.6672212311103</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>950.5535393218959</v>
+        <v>588.3984277101667</v>
       </c>
       <c r="C20" t="n">
-        <v>950.5535393218959</v>
+        <v>588.3984277101667</v>
       </c>
       <c r="D20" t="n">
-        <v>950.5535393218959</v>
+        <v>588.3984277101667</v>
       </c>
       <c r="E20" t="n">
-        <v>950.5535393218959</v>
+        <v>588.3984277101667</v>
       </c>
       <c r="F20" t="n">
-        <v>950.5535393218959</v>
+        <v>177.4125229205592</v>
       </c>
       <c r="G20" t="n">
-        <v>536.9913215350633</v>
+        <v>177.4125229205592</v>
       </c>
       <c r="H20" t="n">
-        <v>204.8481643368514</v>
+        <v>177.4125229205592</v>
       </c>
       <c r="I20" t="n">
         <v>32.75412764871714</v>
@@ -5767,7 +5767,7 @@
         <v>1396.760021434565</v>
       </c>
       <c r="O20" t="n">
-        <v>1399.95830484324</v>
+        <v>1637.706382435857</v>
       </c>
       <c r="P20" t="n">
         <v>1637.706382435857</v>
@@ -5779,25 +5779,25 @@
         <v>1552.3257075726</v>
       </c>
       <c r="S20" t="n">
-        <v>1502.366244089378</v>
+        <v>1365.1375997501</v>
       </c>
       <c r="T20" t="n">
-        <v>1281.616426665466</v>
+        <v>1365.1375997501</v>
       </c>
       <c r="U20" t="n">
-        <v>1281.616426665466</v>
+        <v>1365.1375997501</v>
       </c>
       <c r="V20" t="n">
-        <v>950.5535393218959</v>
+        <v>1365.1375997501</v>
       </c>
       <c r="W20" t="n">
-        <v>950.5535393218959</v>
+        <v>1365.1375997501</v>
       </c>
       <c r="X20" t="n">
-        <v>950.5535393218959</v>
+        <v>1365.1375997501</v>
       </c>
       <c r="Y20" t="n">
-        <v>950.5535393218959</v>
+        <v>974.9982677742885</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32.75412764871714</v>
+        <v>599.8499714959826</v>
       </c>
       <c r="C21" t="n">
-        <v>32.75412764871714</v>
+        <v>425.3969422148556</v>
       </c>
       <c r="D21" t="n">
-        <v>32.75412764871714</v>
+        <v>425.3969422148556</v>
       </c>
       <c r="E21" t="n">
-        <v>32.75412764871714</v>
+        <v>425.3969422148556</v>
       </c>
       <c r="F21" t="n">
-        <v>32.75412764871714</v>
+        <v>278.8623842417405</v>
       </c>
       <c r="G21" t="n">
-        <v>32.75412764871714</v>
+        <v>140.693743436301</v>
       </c>
       <c r="H21" t="n">
         <v>32.75412764871714</v>
@@ -5831,22 +5831,22 @@
         <v>32.75412764871714</v>
       </c>
       <c r="J21" t="n">
-        <v>84.07214852195338</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="K21" t="n">
-        <v>298.4036631232282</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="L21" t="n">
-        <v>648.0032309431995</v>
+        <v>382.3536954686884</v>
       </c>
       <c r="M21" t="n">
-        <v>648.0032309431995</v>
+        <v>787.686025121563</v>
       </c>
       <c r="N21" t="n">
-        <v>1053.335560596074</v>
+        <v>1193.018354774438</v>
       </c>
       <c r="O21" t="n">
-        <v>1349.846617973709</v>
+        <v>1572.868004622255</v>
       </c>
       <c r="P21" t="n">
         <v>1637.706382435857</v>
@@ -5855,28 +5855,28 @@
         <v>1637.706382435857</v>
       </c>
       <c r="R21" t="n">
-        <v>1637.706382435857</v>
+        <v>1571.441613368974</v>
       </c>
       <c r="S21" t="n">
-        <v>1474.731370481205</v>
+        <v>1571.441613368974</v>
       </c>
       <c r="T21" t="n">
-        <v>1334.157361033094</v>
+        <v>1371.521017229396</v>
       </c>
       <c r="U21" t="n">
-        <v>1105.970728599216</v>
+        <v>1371.521017229396</v>
       </c>
       <c r="V21" t="n">
-        <v>870.8186203674736</v>
+        <v>1136.368908997653</v>
       </c>
       <c r="W21" t="n">
-        <v>616.5812636392719</v>
+        <v>882.1315522694515</v>
       </c>
       <c r="X21" t="n">
-        <v>408.7297634337391</v>
+        <v>674.2800520639187</v>
       </c>
       <c r="Y21" t="n">
-        <v>200.9694646687852</v>
+        <v>674.2800520639187</v>
       </c>
     </row>
     <row r="22">
@@ -5937,22 +5937,22 @@
         <v>529.1534797899386</v>
       </c>
       <c r="S22" t="n">
-        <v>529.1534797899386</v>
+        <v>311.0878523945485</v>
       </c>
       <c r="T22" t="n">
-        <v>529.1534797899386</v>
+        <v>311.0878523945485</v>
       </c>
       <c r="U22" t="n">
-        <v>529.1534797899386</v>
+        <v>311.0878523945485</v>
       </c>
       <c r="V22" t="n">
-        <v>529.1534797899386</v>
+        <v>56.40336418866158</v>
       </c>
       <c r="W22" t="n">
-        <v>239.736309752978</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="X22" t="n">
-        <v>239.736309752978</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="Y22" t="n">
         <v>32.75412764871714</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1397.117293181522</v>
+        <v>1485.067710850491</v>
       </c>
       <c r="C23" t="n">
-        <v>1397.117293181522</v>
+        <v>1485.067710850491</v>
       </c>
       <c r="D23" t="n">
-        <v>1397.117293181522</v>
+        <v>1126.80201224374</v>
       </c>
       <c r="E23" t="n">
-        <v>1376.554820290659</v>
+        <v>1126.80201224374</v>
       </c>
       <c r="F23" t="n">
-        <v>965.5689155010518</v>
+        <v>715.8161074541329</v>
       </c>
       <c r="G23" t="n">
-        <v>547.1219205583536</v>
+        <v>297.3691125114346</v>
       </c>
       <c r="H23" t="n">
-        <v>214.9787633601416</v>
+        <v>42.88472667200738</v>
       </c>
       <c r="I23" t="n">
         <v>42.88472667200738</v>
@@ -6019,22 +6019,22 @@
         <v>1871.667550914613</v>
       </c>
       <c r="T23" t="n">
-        <v>1650.917733490701</v>
+        <v>1871.667550914613</v>
       </c>
       <c r="U23" t="n">
-        <v>1397.117293181522</v>
+        <v>1871.667550914613</v>
       </c>
       <c r="V23" t="n">
-        <v>1397.117293181522</v>
+        <v>1871.667550914613</v>
       </c>
       <c r="W23" t="n">
-        <v>1397.117293181522</v>
+        <v>1871.667550914613</v>
       </c>
       <c r="X23" t="n">
-        <v>1397.117293181522</v>
+        <v>1871.667550914613</v>
       </c>
       <c r="Y23" t="n">
-        <v>1397.117293181522</v>
+        <v>1871.667550914613</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>989.0961467684375</v>
+        <v>776.5683311491096</v>
       </c>
       <c r="C24" t="n">
-        <v>814.6431174873105</v>
+        <v>602.1153018679826</v>
       </c>
       <c r="D24" t="n">
-        <v>665.7087078260593</v>
+        <v>602.1153018679826</v>
       </c>
       <c r="E24" t="n">
-        <v>506.4712528206038</v>
+        <v>442.8778468625271</v>
       </c>
       <c r="F24" t="n">
-        <v>359.9366948474888</v>
+        <v>296.3432888894121</v>
       </c>
       <c r="G24" t="n">
-        <v>221.7680540420492</v>
+        <v>158.1746480839725</v>
       </c>
       <c r="H24" t="n">
-        <v>113.8284382544653</v>
+        <v>50.23503229638867</v>
       </c>
       <c r="I24" t="n">
         <v>42.88472667200738</v>
@@ -6071,49 +6071,49 @@
         <v>42.88472667200738</v>
       </c>
       <c r="K24" t="n">
-        <v>257.2162412732822</v>
+        <v>179.156095741261</v>
       </c>
       <c r="L24" t="n">
-        <v>606.8158090932534</v>
+        <v>528.7556635612323</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.76123683314</v>
+        <v>988.701091301119</v>
       </c>
       <c r="N24" t="n">
-        <v>1554.587064822425</v>
+        <v>1476.526919290403</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.436714670242</v>
+        <v>1856.376569138221</v>
       </c>
       <c r="P24" t="n">
-        <v>2004.507473730813</v>
+        <v>2144.236333600369</v>
       </c>
       <c r="Q24" t="n">
         <v>2144.236333600369</v>
       </c>
       <c r="R24" t="n">
-        <v>2144.236333600369</v>
+        <v>2077.971564533486</v>
       </c>
       <c r="S24" t="n">
-        <v>1981.261321645717</v>
+        <v>2077.971564533486</v>
       </c>
       <c r="T24" t="n">
-        <v>1781.340725506139</v>
+        <v>2077.971564533486</v>
       </c>
       <c r="U24" t="n">
-        <v>1553.154093072261</v>
+        <v>1849.784932099609</v>
       </c>
       <c r="V24" t="n">
-        <v>1318.001984840518</v>
+        <v>1614.632823867866</v>
       </c>
       <c r="W24" t="n">
-        <v>1318.001984840518</v>
+        <v>1360.395467139664</v>
       </c>
       <c r="X24" t="n">
-        <v>1318.001984840518</v>
+        <v>1152.543966934132</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.311483788505</v>
+        <v>944.7836681691776</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.88472667200738</v>
+        <v>358.9912154141053</v>
       </c>
       <c r="C25" t="n">
-        <v>42.88472667200738</v>
+        <v>358.9912154141053</v>
       </c>
       <c r="D25" t="n">
-        <v>42.88472667200738</v>
+        <v>358.9912154141053</v>
       </c>
       <c r="E25" t="n">
-        <v>42.88472667200738</v>
+        <v>358.9912154141053</v>
       </c>
       <c r="F25" t="n">
-        <v>42.88472667200738</v>
+        <v>212.101267916195</v>
       </c>
       <c r="G25" t="n">
         <v>42.88472667200738</v>
@@ -6180,19 +6180,19 @@
         <v>539.2840788132289</v>
       </c>
       <c r="U25" t="n">
-        <v>250.0986462323867</v>
+        <v>539.2840788132289</v>
       </c>
       <c r="V25" t="n">
-        <v>250.0986462323867</v>
+        <v>539.2840788132289</v>
       </c>
       <c r="W25" t="n">
-        <v>250.0986462323867</v>
+        <v>539.2840788132289</v>
       </c>
       <c r="X25" t="n">
-        <v>42.88472667200738</v>
+        <v>539.2840788132289</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.88472667200738</v>
+        <v>539.2840788132289</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42.88472667200737</v>
+        <v>1616.371577609308</v>
       </c>
       <c r="C26" t="n">
-        <v>42.88472667200737</v>
+        <v>1616.371577609308</v>
       </c>
       <c r="D26" t="n">
-        <v>42.88472667200737</v>
+        <v>1258.105879002557</v>
       </c>
       <c r="E26" t="n">
-        <v>42.88472667200737</v>
+        <v>872.3176264043132</v>
       </c>
       <c r="F26" t="n">
-        <v>42.88472667200737</v>
+        <v>461.3317216147057</v>
       </c>
       <c r="G26" t="n">
         <v>42.88472667200737</v>
@@ -6232,7 +6232,7 @@
         <v>352.4695505163717</v>
       </c>
       <c r="L26" t="n">
-        <v>695.0572062696071</v>
+        <v>695.0572062696069</v>
       </c>
       <c r="M26" t="n">
         <v>1092.858528342426</v>
@@ -6259,19 +6259,19 @@
         <v>1736.298408353957</v>
       </c>
       <c r="U26" t="n">
-        <v>1482.497968044778</v>
+        <v>1736.298408353957</v>
       </c>
       <c r="V26" t="n">
-        <v>1151.435080701207</v>
+        <v>1736.298408353957</v>
       </c>
       <c r="W26" t="n">
-        <v>798.6664254310933</v>
+        <v>1736.298408353957</v>
       </c>
       <c r="X26" t="n">
-        <v>425.2006671700134</v>
+        <v>1736.298408353957</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.88472667200737</v>
+        <v>1616.371577609308</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>989.0961467684375</v>
+        <v>830.885091737732</v>
       </c>
       <c r="C27" t="n">
-        <v>814.6431174873105</v>
+        <v>656.432062456605</v>
       </c>
       <c r="D27" t="n">
-        <v>665.7087078260593</v>
+        <v>507.4976527953537</v>
       </c>
       <c r="E27" t="n">
-        <v>506.4712528206038</v>
+        <v>348.2601977898982</v>
       </c>
       <c r="F27" t="n">
-        <v>359.9366948474888</v>
+        <v>201.7256398167832</v>
       </c>
       <c r="G27" t="n">
-        <v>221.7680540420492</v>
+        <v>201.7256398167832</v>
       </c>
       <c r="H27" t="n">
-        <v>113.8284382544653</v>
+        <v>93.78602402919931</v>
       </c>
       <c r="I27" t="n">
         <v>42.88472667200737</v>
       </c>
       <c r="J27" t="n">
-        <v>94.20274754524362</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="K27" t="n">
-        <v>94.20274754524362</v>
+        <v>179.1560957412606</v>
       </c>
       <c r="L27" t="n">
-        <v>389.0268036916758</v>
+        <v>528.7556635612318</v>
       </c>
       <c r="M27" t="n">
-        <v>848.9722314315625</v>
+        <v>988.7010913011186</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.798059420847</v>
+        <v>1476.526919290403</v>
       </c>
       <c r="O27" t="n">
-        <v>1716.647709268664</v>
+        <v>1856.37656913822</v>
       </c>
       <c r="P27" t="n">
-        <v>2004.507473730813</v>
+        <v>2144.236333600369</v>
       </c>
       <c r="Q27" t="n">
         <v>2144.236333600369</v>
       </c>
       <c r="R27" t="n">
-        <v>2144.236333600369</v>
+        <v>2077.971564533486</v>
       </c>
       <c r="S27" t="n">
-        <v>2144.236333600369</v>
+        <v>2077.971564533486</v>
       </c>
       <c r="T27" t="n">
-        <v>2144.236333600369</v>
+        <v>1878.050968393907</v>
       </c>
       <c r="U27" t="n">
-        <v>2062.312747718936</v>
+        <v>1649.864335960029</v>
       </c>
       <c r="V27" t="n">
-        <v>1827.160639487194</v>
+        <v>1414.712227728287</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.923282758992</v>
+        <v>1414.712227728287</v>
       </c>
       <c r="X27" t="n">
-        <v>1365.071782553459</v>
+        <v>1206.860727522754</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.311483788505</v>
+        <v>999.1004287578</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>539.2840788132289</v>
+        <v>350.4732171937299</v>
       </c>
       <c r="C28" t="n">
-        <v>539.2840788132289</v>
+        <v>350.4732171937299</v>
       </c>
       <c r="D28" t="n">
-        <v>389.1674394008932</v>
+        <v>350.4732171937299</v>
       </c>
       <c r="E28" t="n">
-        <v>371.7766648555243</v>
+        <v>202.5601236113367</v>
       </c>
       <c r="F28" t="n">
-        <v>371.7766648555243</v>
+        <v>202.5601236113367</v>
       </c>
       <c r="G28" t="n">
         <v>202.5601236113367</v>
@@ -6414,22 +6414,22 @@
         <v>539.2840788132289</v>
       </c>
       <c r="T28" t="n">
-        <v>539.2840788132289</v>
+        <v>350.4732171937299</v>
       </c>
       <c r="U28" t="n">
-        <v>539.2840788132289</v>
+        <v>350.4732171937299</v>
       </c>
       <c r="V28" t="n">
-        <v>539.2840788132289</v>
+        <v>350.4732171937299</v>
       </c>
       <c r="W28" t="n">
-        <v>539.2840788132289</v>
+        <v>350.4732171937299</v>
       </c>
       <c r="X28" t="n">
-        <v>539.2840788132289</v>
+        <v>350.4732171937299</v>
       </c>
       <c r="Y28" t="n">
-        <v>539.2840788132289</v>
+        <v>350.4732171937299</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>770.1129422191696</v>
+        <v>1197.705560939899</v>
       </c>
       <c r="C29" t="n">
-        <v>401.1504252787579</v>
+        <v>1197.705560939899</v>
       </c>
       <c r="D29" t="n">
-        <v>42.88472667200738</v>
+        <v>1197.705560939899</v>
       </c>
       <c r="E29" t="n">
-        <v>42.88472667200738</v>
+        <v>1197.705560939899</v>
       </c>
       <c r="F29" t="n">
-        <v>42.88472667200738</v>
+        <v>786.7196561502915</v>
       </c>
       <c r="G29" t="n">
-        <v>42.88472667200738</v>
+        <v>368.2726612075932</v>
       </c>
       <c r="H29" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="I29" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="J29" t="n">
-        <v>118.4588003632009</v>
+        <v>118.4588003632011</v>
       </c>
       <c r="K29" t="n">
-        <v>352.4695505163718</v>
+        <v>352.469550516372</v>
       </c>
       <c r="L29" t="n">
-        <v>695.0572062696074</v>
+        <v>695.0572062696076</v>
       </c>
       <c r="M29" t="n">
-        <v>1092.858528342426</v>
+        <v>1092.858528342427</v>
       </c>
       <c r="N29" t="n">
-        <v>1482.464694149048</v>
+        <v>1482.464694149049</v>
       </c>
       <c r="O29" t="n">
         <v>1805.171110759439</v>
@@ -6487,28 +6487,28 @@
         <v>2144.236333600369</v>
       </c>
       <c r="R29" t="n">
-        <v>2144.236333600369</v>
+        <v>2058.855658737112</v>
       </c>
       <c r="S29" t="n">
-        <v>2144.236333600369</v>
+        <v>2058.855658737112</v>
       </c>
       <c r="T29" t="n">
-        <v>2144.236333600369</v>
+        <v>1838.1058413132</v>
       </c>
       <c r="U29" t="n">
-        <v>2144.236333600369</v>
+        <v>1584.305401004021</v>
       </c>
       <c r="V29" t="n">
-        <v>1813.173446256798</v>
+        <v>1584.305401004021</v>
       </c>
       <c r="W29" t="n">
-        <v>1460.404790986684</v>
+        <v>1584.305401004021</v>
       </c>
       <c r="X29" t="n">
-        <v>1086.939032725604</v>
+        <v>1584.305401004021</v>
       </c>
       <c r="Y29" t="n">
-        <v>1086.939032725604</v>
+        <v>1584.305401004021</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>973.0497044634767</v>
+        <v>413.6727230548786</v>
       </c>
       <c r="C30" t="n">
-        <v>798.5966751823497</v>
+        <v>239.2196937737516</v>
       </c>
       <c r="D30" t="n">
-        <v>649.6622655210984</v>
+        <v>239.2196937737516</v>
       </c>
       <c r="E30" t="n">
-        <v>490.4248105156429</v>
+        <v>79.98223876829613</v>
       </c>
       <c r="F30" t="n">
-        <v>343.8902525425279</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="G30" t="n">
-        <v>221.7680540420492</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="H30" t="n">
-        <v>113.8284382544653</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="I30" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="J30" t="n">
-        <v>94.20274754524362</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="K30" t="n">
-        <v>94.20274754524362</v>
+        <v>179.1560957412606</v>
       </c>
       <c r="L30" t="n">
-        <v>443.8023153652149</v>
+        <v>528.7556635612318</v>
       </c>
       <c r="M30" t="n">
-        <v>848.9722314315629</v>
+        <v>988.7010913011186</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.798059420847</v>
+        <v>1476.526919290403</v>
       </c>
       <c r="O30" t="n">
-        <v>1716.647709268665</v>
+        <v>1856.37656913822</v>
       </c>
       <c r="P30" t="n">
-        <v>2004.507473730813</v>
+        <v>2144.236333600369</v>
       </c>
       <c r="Q30" t="n">
         <v>2144.236333600369</v>
@@ -6569,25 +6569,25 @@
         <v>2077.971564533486</v>
       </c>
       <c r="S30" t="n">
-        <v>2077.971564533486</v>
+        <v>1914.996552578834</v>
       </c>
       <c r="T30" t="n">
-        <v>1878.050968393908</v>
+        <v>1715.075956439255</v>
       </c>
       <c r="U30" t="n">
-        <v>1878.050968393908</v>
+        <v>1486.889324005378</v>
       </c>
       <c r="V30" t="n">
-        <v>1642.898860162165</v>
+        <v>1251.737215773635</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.661503433963</v>
+        <v>997.4998590454334</v>
       </c>
       <c r="X30" t="n">
-        <v>1180.810003228431</v>
+        <v>789.6483588399005</v>
       </c>
       <c r="Y30" t="n">
-        <v>973.0497044634767</v>
+        <v>581.8880600749467</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="C31" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="D31" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="E31" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="F31" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="G31" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="H31" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="I31" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="J31" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="K31" t="n">
-        <v>74.50666740692098</v>
+        <v>74.50666740692097</v>
       </c>
       <c r="L31" t="n">
         <v>170.4982990974243</v>
@@ -6657,16 +6657,16 @@
         <v>539.2840788132289</v>
       </c>
       <c r="V31" t="n">
-        <v>539.2840788132289</v>
+        <v>332.301896708968</v>
       </c>
       <c r="W31" t="n">
-        <v>249.8669087762683</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="X31" t="n">
-        <v>249.8669087762683</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.88472667200738</v>
+        <v>42.88472667200737</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.88472667200737</v>
+        <v>964.1876811566494</v>
       </c>
       <c r="C32" t="n">
-        <v>42.88472667200737</v>
+        <v>964.1876811566494</v>
       </c>
       <c r="D32" t="n">
-        <v>42.88472667200737</v>
+        <v>605.921982549899</v>
       </c>
       <c r="E32" t="n">
-        <v>42.88472667200737</v>
+        <v>220.1337299516547</v>
       </c>
       <c r="F32" t="n">
-        <v>42.88472667200737</v>
+        <v>220.1337299516547</v>
       </c>
       <c r="G32" t="n">
         <v>42.88472667200737</v>
@@ -6727,25 +6727,25 @@
         <v>2058.855658737112</v>
       </c>
       <c r="S32" t="n">
-        <v>1998.702802049683</v>
+        <v>2058.855658737112</v>
       </c>
       <c r="T32" t="n">
-        <v>1777.952984625771</v>
+        <v>2058.855658737112</v>
       </c>
       <c r="U32" t="n">
-        <v>1524.152544316592</v>
+        <v>2058.855658737112</v>
       </c>
       <c r="V32" t="n">
-        <v>1193.089656973021</v>
+        <v>1727.792771393541</v>
       </c>
       <c r="W32" t="n">
-        <v>1193.089656973021</v>
+        <v>1727.792771393541</v>
       </c>
       <c r="X32" t="n">
-        <v>819.6238987119409</v>
+        <v>1354.327013132461</v>
       </c>
       <c r="Y32" t="n">
-        <v>429.4845667361292</v>
+        <v>964.1876811566494</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>621.4330218198324</v>
+        <v>622.6834675516133</v>
       </c>
       <c r="C33" t="n">
-        <v>446.9799925387055</v>
+        <v>448.2304382704863</v>
       </c>
       <c r="D33" t="n">
-        <v>411.2345340653603</v>
+        <v>448.2304382704863</v>
       </c>
       <c r="E33" t="n">
-        <v>251.9970790599048</v>
+        <v>288.9929832650308</v>
       </c>
       <c r="F33" t="n">
-        <v>251.9970790599048</v>
+        <v>288.9929832650308</v>
       </c>
       <c r="G33" t="n">
-        <v>113.8284382544653</v>
+        <v>150.8243424595912</v>
       </c>
       <c r="H33" t="n">
-        <v>113.8284382544653</v>
+        <v>42.88472667200737</v>
       </c>
       <c r="I33" t="n">
         <v>42.88472667200737</v>
@@ -6782,49 +6782,49 @@
         <v>42.88472667200737</v>
       </c>
       <c r="K33" t="n">
-        <v>257.2162412732822</v>
+        <v>179.1560957412606</v>
       </c>
       <c r="L33" t="n">
-        <v>606.8158090932534</v>
+        <v>528.7556635612318</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.76123683314</v>
+        <v>988.7010913011186</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.798059420847</v>
+        <v>1476.526919290403</v>
       </c>
       <c r="O33" t="n">
-        <v>1716.647709268664</v>
+        <v>1856.37656913822</v>
       </c>
       <c r="P33" t="n">
-        <v>2004.507473730813</v>
+        <v>2144.236333600369</v>
       </c>
       <c r="Q33" t="n">
         <v>2144.236333600369</v>
       </c>
       <c r="R33" t="n">
-        <v>2077.971564533486</v>
+        <v>2144.236333600369</v>
       </c>
       <c r="S33" t="n">
-        <v>1914.996552578834</v>
+        <v>1981.261321645717</v>
       </c>
       <c r="T33" t="n">
-        <v>1715.075956439255</v>
+        <v>1924.08670093599</v>
       </c>
       <c r="U33" t="n">
-        <v>1486.889324005378</v>
+        <v>1695.900068502112</v>
       </c>
       <c r="V33" t="n">
-        <v>1251.737215773635</v>
+        <v>1460.74796027037</v>
       </c>
       <c r="W33" t="n">
-        <v>997.4998590454334</v>
+        <v>1206.510603542168</v>
       </c>
       <c r="X33" t="n">
-        <v>789.6483588399005</v>
+        <v>998.6591033366351</v>
       </c>
       <c r="Y33" t="n">
-        <v>789.6483588399005</v>
+        <v>790.8988045716812</v>
       </c>
     </row>
     <row r="34">
@@ -6891,7 +6891,7 @@
         <v>539.2840788132289</v>
       </c>
       <c r="U34" t="n">
-        <v>250.0986462323867</v>
+        <v>297.5692148778942</v>
       </c>
       <c r="V34" t="n">
         <v>42.88472667200737</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1187.79398364332</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="C35" t="n">
-        <v>1187.79398364332</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="D35" t="n">
-        <v>829.5282850365689</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="E35" t="n">
-        <v>443.7400324383247</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="F35" t="n">
         <v>32.75412764871714</v>
@@ -6961,28 +6961,28 @@
         <v>1637.706382435857</v>
       </c>
       <c r="R35" t="n">
-        <v>1637.706382435857</v>
+        <v>1552.3257075726</v>
       </c>
       <c r="S35" t="n">
-        <v>1637.706382435857</v>
+        <v>1365.1375997501</v>
       </c>
       <c r="T35" t="n">
-        <v>1637.706382435857</v>
+        <v>1365.1375997501</v>
       </c>
       <c r="U35" t="n">
-        <v>1637.706382435857</v>
+        <v>1111.337159440921</v>
       </c>
       <c r="V35" t="n">
-        <v>1637.706382435857</v>
+        <v>780.2742720973503</v>
       </c>
       <c r="W35" t="n">
-        <v>1637.706382435857</v>
+        <v>780.2742720973503</v>
       </c>
       <c r="X35" t="n">
-        <v>1577.933315619131</v>
+        <v>422.8934596245289</v>
       </c>
       <c r="Y35" t="n">
-        <v>1187.79398364332</v>
+        <v>32.75412764871714</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>317.4573264272717</v>
+        <v>978.9655477451473</v>
       </c>
       <c r="C36" t="n">
-        <v>317.4573264272717</v>
+        <v>804.5125184640203</v>
       </c>
       <c r="D36" t="n">
-        <v>317.4573264272717</v>
+        <v>655.5781088027691</v>
       </c>
       <c r="E36" t="n">
-        <v>317.4573264272717</v>
+        <v>496.3406537973135</v>
       </c>
       <c r="F36" t="n">
-        <v>170.9227684541567</v>
+        <v>349.8060958241985</v>
       </c>
       <c r="G36" t="n">
-        <v>32.75412764871714</v>
+        <v>211.6374550187589</v>
       </c>
       <c r="H36" t="n">
-        <v>32.75412764871714</v>
+        <v>103.6978392311751</v>
       </c>
       <c r="I36" t="n">
         <v>32.75412764871714</v>
@@ -7025,7 +7025,7 @@
         <v>596.6852100699632</v>
       </c>
       <c r="M36" t="n">
-        <v>956.720090736725</v>
+        <v>596.6852100699632</v>
       </c>
       <c r="N36" t="n">
         <v>969.9969681258913</v>
@@ -7043,25 +7043,25 @@
         <v>1571.441613368974</v>
       </c>
       <c r="S36" t="n">
-        <v>1408.466601414323</v>
+        <v>1571.441613368974</v>
       </c>
       <c r="T36" t="n">
-        <v>1208.546005274744</v>
+        <v>1382.332992996958</v>
       </c>
       <c r="U36" t="n">
-        <v>1014.60709015217</v>
+        <v>1382.332992996958</v>
       </c>
       <c r="V36" t="n">
-        <v>779.4549819204271</v>
+        <v>1147.180884765215</v>
       </c>
       <c r="W36" t="n">
-        <v>525.2176251922256</v>
+        <v>1147.180884765215</v>
       </c>
       <c r="X36" t="n">
-        <v>525.2176251922256</v>
+        <v>1147.180884765215</v>
       </c>
       <c r="Y36" t="n">
-        <v>317.4573264272717</v>
+        <v>1147.180884765215</v>
       </c>
     </row>
     <row r="37">
@@ -7119,28 +7119,28 @@
         <v>529.1534797899386</v>
       </c>
       <c r="R37" t="n">
-        <v>529.1534797899386</v>
+        <v>432.468219874347</v>
       </c>
       <c r="S37" t="n">
-        <v>529.1534797899386</v>
+        <v>214.4025924789568</v>
       </c>
       <c r="T37" t="n">
-        <v>529.1534797899386</v>
+        <v>214.4025924789568</v>
       </c>
       <c r="U37" t="n">
-        <v>529.1534797899386</v>
+        <v>214.4025924789568</v>
       </c>
       <c r="V37" t="n">
-        <v>529.1534797899386</v>
+        <v>214.4025924789568</v>
       </c>
       <c r="W37" t="n">
-        <v>253.5467067922472</v>
+        <v>214.4025924789568</v>
       </c>
       <c r="X37" t="n">
-        <v>253.5467067922472</v>
+        <v>214.4025924789568</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.75412764871714</v>
+        <v>214.4025924789568</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>778.4595026337618</v>
+        <v>443.7400324383247</v>
       </c>
       <c r="C38" t="n">
-        <v>778.4595026337618</v>
+        <v>443.7400324383247</v>
       </c>
       <c r="D38" t="n">
-        <v>778.4595026337618</v>
+        <v>443.7400324383247</v>
       </c>
       <c r="E38" t="n">
-        <v>778.4595026337618</v>
+        <v>443.7400324383247</v>
       </c>
       <c r="F38" t="n">
-        <v>778.4595026337618</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="G38" t="n">
-        <v>364.8972848469291</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="H38" t="n">
         <v>32.75412764871714</v>
@@ -7174,52 +7174,52 @@
         <v>32.75412764871714</v>
       </c>
       <c r="J38" t="n">
-        <v>32.75412764871714</v>
+        <v>108.3282013399107</v>
       </c>
       <c r="K38" t="n">
-        <v>266.7648778018879</v>
+        <v>342.3389514930815</v>
       </c>
       <c r="L38" t="n">
-        <v>578.1334209117176</v>
+        <v>684.926607246317</v>
       </c>
       <c r="M38" t="n">
-        <v>975.9347429845366</v>
+        <v>1082.727929319136</v>
       </c>
       <c r="N38" t="n">
-        <v>975.9347429845366</v>
+        <v>1399.95830484324</v>
       </c>
       <c r="O38" t="n">
-        <v>1298.641159594927</v>
+        <v>1399.95830484324</v>
       </c>
       <c r="P38" t="n">
-        <v>1536.389237187544</v>
+        <v>1637.706382435857</v>
       </c>
       <c r="Q38" t="n">
         <v>1637.706382435857</v>
       </c>
       <c r="R38" t="n">
-        <v>1637.706382435857</v>
+        <v>1552.3257075726</v>
       </c>
       <c r="S38" t="n">
-        <v>1637.706382435857</v>
+        <v>1552.3257075726</v>
       </c>
       <c r="T38" t="n">
-        <v>1637.706382435857</v>
+        <v>1331.575890148688</v>
       </c>
       <c r="U38" t="n">
-        <v>1637.706382435857</v>
+        <v>1077.775449839509</v>
       </c>
       <c r="V38" t="n">
-        <v>1306.643495092286</v>
+        <v>1077.775449839509</v>
       </c>
       <c r="W38" t="n">
-        <v>953.8748398221721</v>
+        <v>830.3398725024465</v>
       </c>
       <c r="X38" t="n">
-        <v>778.4595026337618</v>
+        <v>830.3398725024465</v>
       </c>
       <c r="Y38" t="n">
-        <v>778.4595026337618</v>
+        <v>830.3398725024465</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32.75412764871714</v>
+        <v>506.1559164844296</v>
       </c>
       <c r="C39" t="n">
-        <v>32.75412764871714</v>
+        <v>506.1559164844296</v>
       </c>
       <c r="D39" t="n">
-        <v>32.75412764871714</v>
+        <v>357.2215068231783</v>
       </c>
       <c r="E39" t="n">
-        <v>32.75412764871714</v>
+        <v>197.9840518177228</v>
       </c>
       <c r="F39" t="n">
-        <v>32.75412764871714</v>
+        <v>51.44949384460782</v>
       </c>
       <c r="G39" t="n">
-        <v>32.75412764871714</v>
+        <v>51.44949384460782</v>
       </c>
       <c r="H39" t="n">
-        <v>32.75412764871714</v>
+        <v>51.44949384460782</v>
       </c>
       <c r="I39" t="n">
         <v>32.75412764871714</v>
       </c>
       <c r="J39" t="n">
-        <v>32.75412764871714</v>
+        <v>84.07214852195338</v>
       </c>
       <c r="K39" t="n">
-        <v>32.75412764871714</v>
+        <v>84.07214852195338</v>
       </c>
       <c r="L39" t="n">
-        <v>382.3536954686884</v>
+        <v>84.07214852195338</v>
       </c>
       <c r="M39" t="n">
-        <v>424.9357786034606</v>
+        <v>489.404478174828</v>
       </c>
       <c r="N39" t="n">
-        <v>830.2681082563352</v>
+        <v>894.7368078277026</v>
       </c>
       <c r="O39" t="n">
-        <v>1210.117758104152</v>
+        <v>1274.58645767552</v>
       </c>
       <c r="P39" t="n">
         <v>1497.977522566301</v>
@@ -7277,28 +7277,28 @@
         <v>1637.706382435857</v>
       </c>
       <c r="R39" t="n">
-        <v>1637.706382435857</v>
+        <v>1571.441613368974</v>
       </c>
       <c r="S39" t="n">
-        <v>1534.077957172673</v>
+        <v>1571.441613368974</v>
       </c>
       <c r="T39" t="n">
-        <v>1334.157361033094</v>
+        <v>1371.521017229396</v>
       </c>
       <c r="U39" t="n">
-        <v>1105.970728599216</v>
+        <v>1371.521017229396</v>
       </c>
       <c r="V39" t="n">
-        <v>870.8186203674736</v>
+        <v>1136.368908997653</v>
       </c>
       <c r="W39" t="n">
-        <v>616.5812636392719</v>
+        <v>882.1315522694515</v>
       </c>
       <c r="X39" t="n">
-        <v>408.7297634337391</v>
+        <v>882.1315522694515</v>
       </c>
       <c r="Y39" t="n">
-        <v>200.9694646687852</v>
+        <v>674.3712535044976</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1637.706382435857</v>
+        <v>180.6672212311103</v>
       </c>
       <c r="C40" t="n">
-        <v>1637.706382435857</v>
+        <v>180.6672212311103</v>
       </c>
       <c r="D40" t="n">
-        <v>1637.706382435857</v>
+        <v>180.6672212311103</v>
       </c>
       <c r="E40" t="n">
-        <v>1637.706382435857</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="F40" t="n">
-        <v>1490.816434937947</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="G40" t="n">
-        <v>1321.599893693759</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="H40" t="n">
-        <v>1161.92449675443</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="I40" t="n">
-        <v>1141.307030294636</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="J40" t="n">
-        <v>1141.307030294636</v>
+        <v>32.75412764871714</v>
       </c>
       <c r="K40" t="n">
-        <v>1172.928971029549</v>
+        <v>64.37606838363074</v>
       </c>
       <c r="L40" t="n">
-        <v>1268.920602720053</v>
+        <v>160.3677000741341</v>
       </c>
       <c r="M40" t="n">
-        <v>1380.519442412296</v>
+        <v>271.9665397663779</v>
       </c>
       <c r="N40" t="n">
-        <v>1494.899327554183</v>
+        <v>386.3464249082646</v>
       </c>
       <c r="O40" t="n">
-        <v>1584.531368889096</v>
+        <v>475.9784662431776</v>
       </c>
       <c r="P40" t="n">
-        <v>1637.706382435857</v>
+        <v>529.1534797899386</v>
       </c>
       <c r="Q40" t="n">
-        <v>1637.706382435857</v>
+        <v>529.1534797899386</v>
       </c>
       <c r="R40" t="n">
-        <v>1637.706382435857</v>
+        <v>529.1534797899386</v>
       </c>
       <c r="S40" t="n">
-        <v>1637.706382435857</v>
+        <v>529.1534797899386</v>
       </c>
       <c r="T40" t="n">
-        <v>1637.706382435857</v>
+        <v>529.1534797899386</v>
       </c>
       <c r="U40" t="n">
-        <v>1637.706382435857</v>
+        <v>529.1534797899386</v>
       </c>
       <c r="V40" t="n">
-        <v>1637.706382435857</v>
+        <v>362.31568606135</v>
       </c>
       <c r="W40" t="n">
-        <v>1637.706382435857</v>
+        <v>362.31568606135</v>
       </c>
       <c r="X40" t="n">
-        <v>1637.706382435857</v>
+        <v>362.31568606135</v>
       </c>
       <c r="Y40" t="n">
-        <v>1637.706382435857</v>
+        <v>362.31568606135</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10.13059902329024</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="C41" t="n">
-        <v>10.13059902329024</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="D41" t="n">
-        <v>10.13059902329024</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="E41" t="n">
-        <v>10.13059902329024</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="F41" t="n">
-        <v>10.13059902329024</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="G41" t="n">
-        <v>10.13059902329024</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="H41" t="n">
-        <v>10.13059902329024</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="I41" t="n">
         <v>10.13059902329024</v>
@@ -7414,49 +7414,49 @@
         <v>10.13059902329024</v>
       </c>
       <c r="K41" t="n">
-        <v>130.4314624248618</v>
+        <v>29.11431717654892</v>
       </c>
       <c r="L41" t="n">
-        <v>255.7976253380784</v>
+        <v>29.11431717654892</v>
       </c>
       <c r="M41" t="n">
-        <v>381.1637882512951</v>
+        <v>154.4804800897656</v>
       </c>
       <c r="N41" t="n">
-        <v>506.5299511645118</v>
+        <v>154.4804800897656</v>
       </c>
       <c r="O41" t="n">
-        <v>506.5299511645118</v>
+        <v>279.8466430029823</v>
       </c>
       <c r="P41" t="n">
-        <v>506.5299511645118</v>
+        <v>405.2128059161989</v>
       </c>
       <c r="Q41" t="n">
         <v>506.5299511645118</v>
       </c>
       <c r="R41" t="n">
-        <v>506.5299511645118</v>
+        <v>421.1492763012546</v>
       </c>
       <c r="S41" t="n">
-        <v>506.5299511645118</v>
+        <v>421.1492763012546</v>
       </c>
       <c r="T41" t="n">
-        <v>506.5299511645118</v>
+        <v>393.8654105115568</v>
       </c>
       <c r="U41" t="n">
-        <v>506.5299511645118</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="V41" t="n">
-        <v>393.8654105115568</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="W41" t="n">
-        <v>265.9538066821346</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="X41" t="n">
         <v>138.0422028527124</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.13059902329024</v>
+        <v>138.0422028527124</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10.13059902329024</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="C42" t="n">
-        <v>10.13059902329024</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="D42" t="n">
-        <v>10.13059902329024</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="E42" t="n">
         <v>10.13059902329024</v>
@@ -7496,46 +7496,46 @@
         <v>10.13059902329024</v>
       </c>
       <c r="L42" t="n">
-        <v>130.4314624248618</v>
+        <v>135.4967619365069</v>
       </c>
       <c r="M42" t="n">
-        <v>130.4314624248618</v>
+        <v>260.8629248497236</v>
       </c>
       <c r="N42" t="n">
-        <v>255.7976253380784</v>
+        <v>381.1637882512951</v>
       </c>
       <c r="O42" t="n">
-        <v>255.7976253380784</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="P42" t="n">
-        <v>381.1637882512951</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="Q42" t="n">
         <v>506.5299511645118</v>
       </c>
       <c r="R42" t="n">
-        <v>440.2651820976291</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="S42" t="n">
-        <v>312.3535782682069</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="T42" t="n">
-        <v>184.4419744387848</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="U42" t="n">
-        <v>56.53037060936259</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="V42" t="n">
-        <v>10.13059902329024</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="W42" t="n">
-        <v>10.13059902329024</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="X42" t="n">
-        <v>10.13059902329024</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.13059902329024</v>
+        <v>378.6183473350896</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>393.8654105115568</v>
+      </c>
+      <c r="C43" t="n">
+        <v>393.8654105115568</v>
+      </c>
+      <c r="D43" t="n">
+        <v>393.8654105115568</v>
+      </c>
+      <c r="E43" t="n">
+        <v>393.8654105115568</v>
+      </c>
+      <c r="F43" t="n">
+        <v>393.8654105115568</v>
+      </c>
+      <c r="G43" t="n">
         <v>265.9538066821346</v>
       </c>
-      <c r="C43" t="n">
-        <v>265.9538066821346</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="H43" t="n">
         <v>138.0422028527124</v>
-      </c>
-      <c r="E43" t="n">
-        <v>138.0422028527124</v>
-      </c>
-      <c r="F43" t="n">
-        <v>138.0422028527124</v>
-      </c>
-      <c r="G43" t="n">
-        <v>10.13059902329024</v>
-      </c>
-      <c r="H43" t="n">
-        <v>10.13059902329024</v>
       </c>
       <c r="I43" t="n">
         <v>10.13059902329024</v>
@@ -7572,13 +7572,13 @@
         <v>10.13059902329024</v>
       </c>
       <c r="K43" t="n">
-        <v>41.75253975820385</v>
+        <v>41.75253975820384</v>
       </c>
       <c r="L43" t="n">
         <v>137.7441714487072</v>
       </c>
       <c r="M43" t="n">
-        <v>249.3430111409509</v>
+        <v>249.343011140951</v>
       </c>
       <c r="N43" t="n">
         <v>363.7228962828377</v>
@@ -7590,31 +7590,31 @@
         <v>506.5299511645118</v>
       </c>
       <c r="Q43" t="n">
-        <v>458.9639302909372</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="R43" t="n">
-        <v>393.8654105115568</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="S43" t="n">
-        <v>393.8654105115568</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="T43" t="n">
         <v>393.8654105115568</v>
       </c>
       <c r="U43" t="n">
-        <v>265.9538066821346</v>
+        <v>393.8654105115568</v>
       </c>
       <c r="V43" t="n">
-        <v>265.9538066821346</v>
+        <v>393.8654105115568</v>
       </c>
       <c r="W43" t="n">
-        <v>265.9538066821346</v>
+        <v>393.8654105115568</v>
       </c>
       <c r="X43" t="n">
-        <v>265.9538066821346</v>
+        <v>393.8654105115568</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.9538066821346</v>
+        <v>393.8654105115568</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>250.7067435056674</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="C44" t="n">
-        <v>122.7951396762452</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="D44" t="n">
-        <v>122.7951396762452</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="E44" t="n">
-        <v>122.7951396762452</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="F44" t="n">
-        <v>122.7951396762452</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="G44" t="n">
-        <v>122.7951396762452</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="H44" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="I44" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="J44" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="K44" t="n">
-        <v>10.13059902329023</v>
+        <v>130.4314624248618</v>
       </c>
       <c r="L44" t="n">
-        <v>10.13059902329023</v>
+        <v>255.7976253380784</v>
       </c>
       <c r="M44" t="n">
-        <v>29.11431717654894</v>
+        <v>255.7976253380784</v>
       </c>
       <c r="N44" t="n">
-        <v>154.4804800897656</v>
+        <v>381.1637882512951</v>
       </c>
       <c r="O44" t="n">
-        <v>279.8466430029823</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="P44" t="n">
-        <v>405.2128059161989</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="Q44" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="R44" t="n">
-        <v>506.5299511645117</v>
+        <v>421.1492763012546</v>
       </c>
       <c r="S44" t="n">
-        <v>506.5299511645117</v>
+        <v>421.1492763012546</v>
       </c>
       <c r="T44" t="n">
-        <v>506.5299511645117</v>
+        <v>421.1492763012546</v>
       </c>
       <c r="U44" t="n">
-        <v>506.5299511645117</v>
+        <v>293.2376724718325</v>
       </c>
       <c r="V44" t="n">
-        <v>506.5299511645117</v>
+        <v>165.3260686424103</v>
       </c>
       <c r="W44" t="n">
-        <v>506.5299511645117</v>
+        <v>165.3260686424103</v>
       </c>
       <c r="X44" t="n">
-        <v>506.5299511645117</v>
+        <v>165.3260686424103</v>
       </c>
       <c r="Y44" t="n">
-        <v>378.6183473350895</v>
+        <v>138.0422028527124</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="C45" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="D45" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="E45" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="F45" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="G45" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="H45" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="I45" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="J45" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="K45" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="L45" t="n">
+        <v>10.13059902329024</v>
+      </c>
+      <c r="M45" t="n">
         <v>135.4967619365069</v>
       </c>
-      <c r="M45" t="n">
-        <v>255.7976253380784</v>
-      </c>
       <c r="N45" t="n">
-        <v>381.163788251295</v>
+        <v>260.8629248497236</v>
       </c>
       <c r="O45" t="n">
-        <v>506.5299511645117</v>
+        <v>386.2290877629403</v>
       </c>
       <c r="P45" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="Q45" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="R45" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="S45" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="T45" t="n">
-        <v>393.8654105115567</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="U45" t="n">
-        <v>265.9538066821345</v>
+        <v>378.6183473350896</v>
       </c>
       <c r="V45" t="n">
-        <v>265.9538066821345</v>
+        <v>250.7067435056674</v>
       </c>
       <c r="W45" t="n">
-        <v>138.0422028527124</v>
+        <v>250.7067435056674</v>
       </c>
       <c r="X45" t="n">
-        <v>10.13059902329023</v>
+        <v>122.7951396762452</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.13059902329023</v>
+        <v>122.7951396762452</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>393.8654105115567</v>
+        <v>393.8654105115568</v>
       </c>
       <c r="C46" t="n">
-        <v>393.8654105115567</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="D46" t="n">
-        <v>393.8654105115567</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="E46" t="n">
-        <v>393.8654105115567</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="F46" t="n">
-        <v>393.8654105115567</v>
+        <v>265.9538066821346</v>
       </c>
       <c r="G46" t="n">
-        <v>265.9538066821345</v>
+        <v>138.0422028527124</v>
       </c>
       <c r="H46" t="n">
         <v>138.0422028527124</v>
       </c>
       <c r="I46" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="J46" t="n">
-        <v>10.13059902329023</v>
+        <v>10.13059902329024</v>
       </c>
       <c r="K46" t="n">
-        <v>41.75253975820384</v>
+        <v>41.75253975820385</v>
       </c>
       <c r="L46" t="n">
         <v>137.7441714487072</v>
       </c>
       <c r="M46" t="n">
-        <v>249.3430111409509</v>
+        <v>249.343011140951</v>
       </c>
       <c r="N46" t="n">
         <v>363.7228962828377</v>
@@ -7824,34 +7824,34 @@
         <v>453.3549376177507</v>
       </c>
       <c r="P46" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="Q46" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="R46" t="n">
-        <v>506.5299511645117</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="S46" t="n">
-        <v>393.8654105115567</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="T46" t="n">
-        <v>393.8654105115567</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="U46" t="n">
-        <v>393.8654105115567</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="V46" t="n">
-        <v>393.8654105115567</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="W46" t="n">
-        <v>393.8654105115567</v>
+        <v>506.5299511645118</v>
       </c>
       <c r="X46" t="n">
-        <v>393.8654105115567</v>
+        <v>393.8654105115568</v>
       </c>
       <c r="Y46" t="n">
-        <v>393.8654105115567</v>
+        <v>393.8654105115568</v>
       </c>
     </row>
   </sheetData>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>92.75916699915101</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>214.4034052580798</v>
+        <v>87.77091746695183</v>
       </c>
       <c r="L11" t="n">
-        <v>71.61307742597012</v>
+        <v>198.2455652170981</v>
       </c>
       <c r="M11" t="n">
-        <v>47.6940162475608</v>
+        <v>117.1645287478455</v>
       </c>
       <c r="N11" t="n">
-        <v>62.98081567121301</v>
+        <v>43.8053427891335</v>
       </c>
       <c r="O11" t="n">
-        <v>181.4665916696401</v>
+        <v>54.8341038785122</v>
       </c>
       <c r="P11" t="n">
-        <v>208.2816226367348</v>
+        <v>208.2816226367349</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.25465061996819</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>169.4847812553025</v>
+        <v>174.6012454084794</v>
       </c>
       <c r="L12" t="n">
-        <v>144.3419565087576</v>
+        <v>73.97812037335591</v>
       </c>
       <c r="M12" t="n">
         <v>1.113722598599168</v>
       </c>
       <c r="N12" t="n">
-        <v>113.2215005293438</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>136.8082920700622</v>
+        <v>10.17580427893432</v>
       </c>
       <c r="P12" t="n">
-        <v>27.69532978928223</v>
+        <v>154.3278175804101</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.93702524134795</v>
+        <v>195.5695130324759</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8859,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444617</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>92.75916699915101</v>
       </c>
       <c r="K14" t="n">
         <v>87.77091746695183</v>
       </c>
       <c r="L14" t="n">
-        <v>198.245565217098</v>
+        <v>71.61307742597012</v>
       </c>
       <c r="M14" t="n">
         <v>174.3265040386887</v>
       </c>
       <c r="N14" t="n">
-        <v>113.2758552894182</v>
+        <v>62.98081567121298</v>
       </c>
       <c r="O14" t="n">
-        <v>54.8341038785122</v>
+        <v>181.4665916696401</v>
       </c>
       <c r="P14" t="n">
-        <v>81.64913484560688</v>
+        <v>208.2816226367349</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9014,16 +9014,16 @@
         <v>17.70946871762965</v>
       </c>
       <c r="M15" t="n">
-        <v>57.3823742543254</v>
+        <v>57.38237425432543</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>136.8082920700622</v>
+        <v>10.17580427893432</v>
       </c>
       <c r="P15" t="n">
-        <v>27.69532978928223</v>
+        <v>154.3278175804101</v>
       </c>
       <c r="Q15" t="n">
         <v>195.5695130324759</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>92.75916699915101</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>87.77091746695183</v>
       </c>
       <c r="L17" t="n">
-        <v>318.5512530962715</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>184.4745415857105</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>54.8341038785122</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>47.96875761735149</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>133.4298055592982</v>
+        <v>1.113722598599168</v>
       </c>
       <c r="N18" t="n">
-        <v>396.0156083471801</v>
+        <v>311.8352119126521</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9415,10 +9415,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>58.0646931802046</v>
+        <v>298.2142665060803</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>81.64913484560688</v>
       </c>
       <c r="Q20" t="n">
         <v>109.9744399040331</v>
@@ -9479,25 +9479,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>74.25465061996819</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>47.96875761735149</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>1.113722598599168</v>
+        <v>410.5403182075634</v>
       </c>
       <c r="N21" t="n">
         <v>396.0156083471801</v>
       </c>
       <c r="O21" t="n">
-        <v>309.6819228422014</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>93.18864071211247</v>
       </c>
       <c r="Q21" t="n">
         <v>68.93702524134795</v>
@@ -9719,7 +9719,7 @@
         <v>74.25465061996819</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>185.6166051620521</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>98.47387429490966</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>68.93702524134795</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>74.25465061996819</v>
       </c>
       <c r="K27" t="n">
-        <v>47.96875761735149</v>
+        <v>185.6166051620517</v>
       </c>
       <c r="L27" t="n">
-        <v>315.5115456332176</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>68.93702524134795</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>74.25465061996819</v>
       </c>
       <c r="K30" t="n">
-        <v>47.96875761735149</v>
+        <v>185.6166051620517</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>410.3762640797588</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>68.93702524134795</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>74.25465061996819</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>185.6166051620517</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>259.3534799985256</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>68.93702524134795</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>364.7853192316919</v>
+        <v>1.113722598599168</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>363.6715966330927</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>92.75916699915101</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>386.126757334889</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>43.8053427891335</v>
+        <v>364.2400655407539</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>54.8341038785122</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>109.9744399040331</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.25465061996819</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>47.96875761735149</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>17.70946871762965</v>
       </c>
       <c r="M39" t="n">
-        <v>44.12592778523773</v>
+        <v>410.5403182075634</v>
       </c>
       <c r="N39" t="n">
         <v>396.0156083471801</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>253.3428700830005</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11062,25 +11062,25 @@
         <v>92.75916699915101</v>
       </c>
       <c r="K41" t="n">
-        <v>209.2869411049029</v>
+        <v>106.9463903490313</v>
       </c>
       <c r="L41" t="n">
-        <v>198.2455652170981</v>
+        <v>71.61307742597012</v>
       </c>
       <c r="M41" t="n">
         <v>174.3265040386887</v>
       </c>
       <c r="N41" t="n">
-        <v>170.4378305802615</v>
+        <v>43.8053427891335</v>
       </c>
       <c r="O41" t="n">
-        <v>54.8341038785122</v>
+        <v>181.4665916696401</v>
       </c>
       <c r="P41" t="n">
-        <v>81.64913484560688</v>
+        <v>208.2816226367349</v>
       </c>
       <c r="Q41" t="n">
-        <v>109.9744399040331</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11144,22 +11144,22 @@
         <v>47.96875761735149</v>
       </c>
       <c r="L42" t="n">
-        <v>139.2254923555807</v>
+        <v>144.3419565087576</v>
       </c>
       <c r="M42" t="n">
-        <v>1.113722598599168</v>
+        <v>127.7462103897271</v>
       </c>
       <c r="N42" t="n">
-        <v>113.2215005293438</v>
+        <v>108.1050363761669</v>
       </c>
       <c r="O42" t="n">
-        <v>10.17580427893432</v>
+        <v>136.8082920700622</v>
       </c>
       <c r="P42" t="n">
-        <v>154.3278175804101</v>
+        <v>27.69532978928223</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.5695130324759</v>
+        <v>68.93702524134795</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,25 +11299,25 @@
         <v>92.75916699915101</v>
       </c>
       <c r="K44" t="n">
-        <v>87.77091746695183</v>
+        <v>209.2869411049029</v>
       </c>
       <c r="L44" t="n">
-        <v>71.61307742597012</v>
+        <v>198.2455652170981</v>
       </c>
       <c r="M44" t="n">
-        <v>66.8694891296403</v>
+        <v>47.6940162475608</v>
       </c>
       <c r="N44" t="n">
-        <v>170.4378305802614</v>
+        <v>170.4378305802615</v>
       </c>
       <c r="O44" t="n">
         <v>181.4665916696401</v>
       </c>
       <c r="P44" t="n">
-        <v>208.2816226367348</v>
+        <v>81.64913484560688</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>109.9744399040331</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11381,19 +11381,19 @@
         <v>47.96875761735149</v>
       </c>
       <c r="L45" t="n">
-        <v>144.3419565087576</v>
+        <v>17.70946871762965</v>
       </c>
       <c r="M45" t="n">
-        <v>122.6297462365502</v>
+        <v>127.7462103897271</v>
       </c>
       <c r="N45" t="n">
         <v>113.2215005293438</v>
       </c>
       <c r="O45" t="n">
-        <v>136.8082920700622</v>
+        <v>136.8082920700623</v>
       </c>
       <c r="P45" t="n">
-        <v>27.69532978928223</v>
+        <v>149.2113534272333</v>
       </c>
       <c r="Q45" t="n">
         <v>68.93702524134795</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>270.3924748258364</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>280.2435579505835</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>84.52686811462453</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>185.3162267442746</v>
       </c>
       <c r="T11" t="n">
-        <v>91.90983145854476</v>
+        <v>218.5423192496727</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2624359060874</v>
+        <v>124.6299481149595</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>322.2299415856121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.90069585873941</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>126.7727251181041</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23354,10 +23354,10 @@
         <v>136.7869543973851</v>
       </c>
       <c r="H12" t="n">
-        <v>65.55659884991596</v>
+        <v>106.860219629708</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>70.23427446663335</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>65.6021213762138</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>161.3452618351053</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9213901781828</v>
+        <v>71.28890238705489</v>
       </c>
       <c r="U12" t="n">
         <v>225.9047661095389</v>
       </c>
       <c r="V12" t="n">
-        <v>106.1680993582973</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>125.0624953697917</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>79.05020798617642</v>
       </c>
     </row>
     <row r="13">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>53.19949239080935</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>21.98298522708443</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>18.78856023180332</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.5243758317457</v>
@@ -23463,22 +23463,22 @@
         <v>47.0903606648388</v>
       </c>
       <c r="R13" t="n">
-        <v>44.77530482962716</v>
+        <v>29.68071228492465</v>
       </c>
       <c r="S13" t="n">
         <v>215.8849711214363</v>
       </c>
       <c r="T13" t="n">
-        <v>99.31943202301589</v>
+        <v>225.9519198141438</v>
       </c>
       <c r="U13" t="n">
         <v>286.2935782550338</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>125.5051555327001</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>174.9851030901656</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>338.2618646392066</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>228.050553829555</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>280.2435579505835</v>
       </c>
       <c r="G14" t="n">
         <v>414.2625249932713</v>
@@ -23515,7 +23515,7 @@
         <v>328.8217256262298</v>
       </c>
       <c r="I14" t="n">
-        <v>43.74060853012493</v>
+        <v>170.3730963212529</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3051996124738</v>
+        <v>58.6837389531467</v>
       </c>
       <c r="T14" t="n">
         <v>218.5423192496727</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>243.0986128873411</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>259.6054508649257</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>39.90069585873941</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,19 +23582,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>31.01259266427301</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>79.36117036175231</v>
       </c>
       <c r="G15" t="n">
-        <v>95.48333361759308</v>
+        <v>136.7869543973851</v>
       </c>
       <c r="H15" t="n">
-        <v>106.860219629708</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>70.23427446663335</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>65.6021213762138</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>161.3452618351053</v>
       </c>
       <c r="T15" t="n">
-        <v>71.2889023870549</v>
+        <v>197.9213901781828</v>
       </c>
       <c r="U15" t="n">
         <v>225.9047661095389</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>106.1680993582973</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>125.0624953697917</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>34.89606740014374</v>
       </c>
       <c r="F16" t="n">
-        <v>33.88315277650581</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>40.89188804061776</v>
+        <v>40.89188804061774</v>
       </c>
       <c r="H16" t="n">
-        <v>31.44615517880816</v>
+        <v>31.44615517880814</v>
       </c>
       <c r="I16" t="n">
-        <v>14.78594653279539</v>
+        <v>141.4184343239233</v>
       </c>
       <c r="J16" t="n">
         <v>60.37031077805852</v>
@@ -23709,7 +23709,7 @@
         <v>225.9519198141438</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2935782550338</v>
+        <v>159.6610904639059</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2625249932713</v>
+        <v>4.835929384307008</v>
       </c>
       <c r="H17" t="n">
-        <v>328.8217256262298</v>
+        <v>75.68772465170116</v>
       </c>
       <c r="I17" t="n">
-        <v>170.3730963212529</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>251.2624359060874</v>
       </c>
       <c r="V17" t="n">
-        <v>198.7425759034851</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>82.77398753762702</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>106.860219629708</v>
       </c>
       <c r="I18" t="n">
-        <v>66.02081126732132</v>
+        <v>70.23427446663335</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>65.6021213762138</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.5243758317457</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>158.0786429699361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>141.4184343239233</v>
       </c>
       <c r="J19" t="n">
         <v>60.37031077805852</v>
@@ -23943,16 +23943,16 @@
         <v>215.8849711214363</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9519198141438</v>
+        <v>133.0881671647317</v>
       </c>
       <c r="U19" t="n">
         <v>286.2935782550338</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>262.1090928423868</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.835929384307008</v>
+        <v>414.2625249932713</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>328.8217256262298</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>27.16128500212926</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>135.8563578958851</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.5423192496727</v>
       </c>
       <c r="U20" t="n">
         <v>251.2624359060874</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>92.8474038876106</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,13 +24059,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7869543973851</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>106.860219629708</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>70.23427446663335</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>65.6021213762138</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>161.3452618351053</v>
       </c>
       <c r="T21" t="n">
-        <v>58.75312082455281</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9047661095389</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24177,7 +24177,7 @@
         <v>156.3132000760526</v>
       </c>
       <c r="S22" t="n">
-        <v>215.8849711214363</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.9519198141438</v>
@@ -24186,16 +24186,16 @@
         <v>286.2935782550338</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>263.110254162046</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.67229306887654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>361.5735219103082</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>76.8821836451969</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>170.3730963212529</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.5423192496727</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2624359060874</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>62.95747189849588</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>65.6021213762138</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>161.3452618351053</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.9213901781828</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>46.59909973581182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>1.342045416804979</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5243758317457</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>158.0786429699361</v>
@@ -24420,7 +24420,7 @@
         <v>225.9519198141438</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2935782550338</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>20.56787502426167</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2625249932713</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>328.8217256262298</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2624359060874</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.74515756302759</v>
+        <v>267.5103762188508</v>
       </c>
     </row>
     <row r="27">
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.7869543973851</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.84199008301334</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>65.6021213762138</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>161.3452618351053</v>
       </c>
       <c r="T27" t="n">
-        <v>197.9213901781828</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>144.800416086921</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>129.217095846654</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.5243758317457</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>215.8849711214363</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9519198141438</v>
+        <v>39.02916681083977</v>
       </c>
       <c r="U28" t="n">
         <v>286.2935782550338</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69.07601206211007</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.2625249932713</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>328.8217256262298</v>
+        <v>6.687670435999848</v>
       </c>
       <c r="I29" t="n">
         <v>170.3730963212529</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>84.52686811462453</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>185.3162267442746</v>
       </c>
       <c r="T29" t="n">
-        <v>218.5423192496727</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2624359060874</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>108.342675418058</v>
       </c>
       <c r="G30" t="n">
-        <v>15.88597788191116</v>
+        <v>136.7869543973851</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>106.860219629708</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>70.23427446663335</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>161.3452618351053</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9047661095389</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>286.2935782550338</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>47.2252830406097</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.67229306887648</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.2625249932713</v>
+        <v>238.7860117464204</v>
       </c>
       <c r="H32" t="n">
         <v>328.8217256262298</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>125.7648986237197</v>
+        <v>185.3162267442746</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.5423192496727</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2624359060874</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>112.0570616760271</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>106.860219629708</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>70.23427446663335</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>65.6021213762138</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>141.3185156755532</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25131,10 +25131,10 @@
         <v>225.9519198141438</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.99586295905252</v>
       </c>
       <c r="V34" t="n">
-        <v>46.99586295905252</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25159,13 +25159,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.2625249932713</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>84.52686811462453</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3162267442746</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.5423192496727</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2624359060874</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>310.5557645299106</v>
+        <v>15.9240963303759</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>106.860219629708</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>70.23427446663335</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>161.3452618351053</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>10.70385600988649</v>
       </c>
       <c r="U36" t="n">
-        <v>33.90524013819055</v>
+        <v>225.9047661095389</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,10 +25359,10 @@
         <v>47.0903606648388</v>
       </c>
       <c r="R37" t="n">
-        <v>156.3132000760526</v>
+        <v>60.59479275961694</v>
       </c>
       <c r="S37" t="n">
-        <v>215.8849711214363</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.9519198141438</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>13.67229306887657</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.835929384307008</v>
+        <v>414.2625249932713</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>328.8217256262298</v>
       </c>
       <c r="I38" t="n">
         <v>170.3730963212529</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>84.52686811462453</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>185.3162267442746</v>
       </c>
       <c r="T38" t="n">
-        <v>218.5423192496727</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2624359060874</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>104.2797471537213</v>
       </c>
       <c r="X38" t="n">
-        <v>196.0699168619428</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25475,13 +25475,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.7869543973851</v>
@@ -25490,7 +25490,7 @@
         <v>106.860219629708</v>
       </c>
       <c r="I39" t="n">
-        <v>70.23427446663335</v>
+        <v>51.72586193270158</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>65.6021213762138</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>58.75312082455289</v>
+        <v>161.3452618351053</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9047661095389</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.5243758317457</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>158.0786429699361</v>
       </c>
       <c r="I40" t="n">
-        <v>121.0071425287272</v>
+        <v>141.4184343239233</v>
       </c>
       <c r="J40" t="n">
         <v>60.37031077805852</v>
@@ -25608,7 +25608,7 @@
         <v>286.2935782550338</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>86.96822753252528</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25648,7 +25648,7 @@
         <v>328.8217256262298</v>
       </c>
       <c r="I41" t="n">
-        <v>170.3730963212529</v>
+        <v>43.74060853012492</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>84.52686811462453</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>185.3162267442746</v>
       </c>
       <c r="T41" t="n">
-        <v>218.5423192496727</v>
+        <v>191.5312921178718</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2624359060874</v>
+        <v>124.6299481149595</v>
       </c>
       <c r="V41" t="n">
-        <v>216.2143632237095</v>
+        <v>201.119770679007</v>
       </c>
       <c r="W41" t="n">
-        <v>222.6084809262851</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>243.0986128873411</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>259.6054508649256</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>54.9952884034419</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>46.0760111971878</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>31.012592664273</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>65.6021213762138</v>
       </c>
       <c r="S42" t="n">
-        <v>34.71277404397733</v>
+        <v>161.3452618351053</v>
       </c>
       <c r="T42" t="n">
-        <v>71.28890238705489</v>
+        <v>197.9213901781828</v>
       </c>
       <c r="U42" t="n">
         <v>99.272278318411</v>
       </c>
       <c r="V42" t="n">
-        <v>186.8648132792136</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>21.98298522708441</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>40.89188804061774</v>
       </c>
       <c r="H43" t="n">
-        <v>158.0786429699361</v>
+        <v>31.44615517880814</v>
       </c>
       <c r="I43" t="n">
-        <v>141.4184343239233</v>
+        <v>14.78594653279538</v>
       </c>
       <c r="J43" t="n">
         <v>60.37031077805852</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>47.0903606648388</v>
       </c>
       <c r="R43" t="n">
-        <v>91.86566549446594</v>
+        <v>156.3132000760526</v>
       </c>
       <c r="S43" t="n">
         <v>215.8849711214363</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9519198141438</v>
+        <v>114.4140245677184</v>
       </c>
       <c r="U43" t="n">
-        <v>159.6610904639059</v>
+        <v>286.2935782550338</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>256.1013538723527</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>238.6404039798796</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.2625249932713</v>
+        <v>287.6300372021433</v>
       </c>
       <c r="H44" t="n">
-        <v>217.2838303798044</v>
+        <v>328.8217256262298</v>
       </c>
       <c r="I44" t="n">
         <v>170.3730963212529</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>84.52686811462453</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>185.3162267442746</v>
@@ -25921,10 +25921,10 @@
         <v>218.5423192496727</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2624359060874</v>
+        <v>124.6299481149595</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>201.119770679007</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>259.6054508649257</v>
+        <v>359.2269115242527</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>54.99528840344189</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25997,19 +25997,19 @@
         <v>161.3452618351053</v>
       </c>
       <c r="T45" t="n">
-        <v>86.3834949317574</v>
+        <v>71.28890238705489</v>
       </c>
       <c r="U45" t="n">
-        <v>99.27227831841101</v>
+        <v>225.9047661095389</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>106.1680993582973</v>
       </c>
       <c r="W45" t="n">
-        <v>125.0624953697917</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>79.14049741234955</v>
+        <v>79.14049741234953</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.61433330749989</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>40.89188804061776</v>
+        <v>40.89188804061774</v>
       </c>
       <c r="H46" t="n">
-        <v>31.44615517880816</v>
+        <v>158.0786429699361</v>
       </c>
       <c r="I46" t="n">
-        <v>14.78594653279539</v>
+        <v>14.78594653279538</v>
       </c>
       <c r="J46" t="n">
         <v>60.37031077805852</v>
@@ -26073,7 +26073,7 @@
         <v>156.3132000760526</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3470758750108</v>
+        <v>215.8849711214363</v>
       </c>
       <c r="T46" t="n">
         <v>225.9519198141438</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>114.1717601426117</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363152.1506765647</v>
+        <v>363152.1506765648</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363152.1506765647</v>
+        <v>363152.1506765648</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>544788.5493738506</v>
+        <v>544788.5493738505</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>626123.5857292572</v>
+        <v>626123.5857292573</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>626123.5857292572</v>
+        <v>626123.5857292571</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>626123.5857292573</v>
+        <v>626123.5857292571</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>544788.5493738505</v>
+        <v>544788.5493738506</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>363152.1506765647</v>
+        <v>363152.1506765648</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
         <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="E2" t="n">
-        <v>222365.2110634881</v>
+        <v>222365.211063488</v>
       </c>
       <c r="F2" t="n">
-        <v>222365.2110634881</v>
+        <v>222365.2110634882</v>
       </c>
       <c r="G2" t="n">
-        <v>319436.2002601292</v>
+        <v>319436.2002601293</v>
       </c>
       <c r="H2" t="n">
         <v>319436.2002601291</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>245692.5027895506</v>
+        <v>245692.5027895507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>48883.55838184028</v>
+        <v>48883.55838184029</v>
       </c>
       <c r="F4" t="n">
-        <v>48883.55838184028</v>
+        <v>48883.55838184029</v>
       </c>
       <c r="G4" t="n">
-        <v>93486.57633244115</v>
+        <v>93486.57633244117</v>
       </c>
       <c r="H4" t="n">
         <v>93486.57633244115</v>
@@ -26459,7 +26459,7 @@
         <v>48883.55838184028</v>
       </c>
       <c r="P4" t="n">
-        <v>48883.55838184028</v>
+        <v>48883.55838184029</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>13340.06771063734</v>
+        <v>13340.06771063735</v>
       </c>
       <c r="F5" t="n">
-        <v>13340.06771063734</v>
+        <v>13340.06771063735</v>
       </c>
       <c r="G5" t="n">
         <v>30533.94946596179</v>
@@ -26496,7 +26496,7 @@
         <v>38233.20472366237</v>
       </c>
       <c r="K5" t="n">
-        <v>38233.20472366238</v>
+        <v>38233.20472366237</v>
       </c>
       <c r="L5" t="n">
         <v>38233.20472366237</v>
@@ -26511,7 +26511,7 @@
         <v>13340.06771063735</v>
       </c>
       <c r="P5" t="n">
-        <v>13340.06771063734</v>
+        <v>13340.06771063735</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145575.3469568938</v>
+        <v>145531.2111782126</v>
       </c>
       <c r="C6" t="n">
-        <v>145575.3469568937</v>
+        <v>145531.2111782125</v>
       </c>
       <c r="D6" t="n">
-        <v>145575.3469568936</v>
+        <v>145531.2111782126</v>
       </c>
       <c r="E6" t="n">
-        <v>-85550.91781854017</v>
+        <v>-98409.19616640639</v>
       </c>
       <c r="F6" t="n">
-        <v>160141.5849710105</v>
+        <v>147283.3066231444</v>
       </c>
       <c r="G6" t="n">
-        <v>117906.0514204746</v>
+        <v>108395.0485621479</v>
       </c>
       <c r="H6" t="n">
-        <v>195415.6744617261</v>
+        <v>185904.6716033994</v>
       </c>
       <c r="I6" t="n">
-        <v>177536.8354599208</v>
+        <v>169524.7104453845</v>
       </c>
       <c r="J6" t="n">
-        <v>211211.0732458253</v>
+        <v>203198.948231289</v>
       </c>
       <c r="K6" t="n">
-        <v>211211.0732458253</v>
+        <v>203198.9482312889</v>
       </c>
       <c r="L6" t="n">
-        <v>211211.0732458253</v>
+        <v>203198.9482312889</v>
       </c>
       <c r="M6" t="n">
-        <v>195415.6744617262</v>
+        <v>185904.6716033994</v>
       </c>
       <c r="N6" t="n">
-        <v>195415.6744617263</v>
+        <v>185904.6716033996</v>
       </c>
       <c r="O6" t="n">
-        <v>160141.5849710104</v>
+        <v>147283.3066231443</v>
       </c>
       <c r="P6" t="n">
-        <v>160141.5849710105</v>
+        <v>147283.3066231443</v>
       </c>
     </row>
   </sheetData>
@@ -26816,7 +26816,7 @@
         <v>536.0590834000922</v>
       </c>
       <c r="K4" t="n">
-        <v>536.0590834000923</v>
+        <v>536.0590834000922</v>
       </c>
       <c r="L4" t="n">
         <v>536.0590834000922</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>76.33744817292276</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>69.47051250028467</v>
       </c>
       <c r="N11" t="n">
-        <v>19.1754728820795</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>126.6324877911279</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.83638472044065</v>
       </c>
       <c r="K12" t="n">
-        <v>121.516023637951</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="L12" t="n">
+        <v>56.26865165572626</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13.41098726178413</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
         <v>126.6324877911279</v>
-      </c>
-      <c r="O12" t="n">
-        <v>126.6324877911279</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>76.33744817292276</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>126.6324877911279</v>
       </c>
       <c r="N14" t="n">
-        <v>69.47051250028467</v>
+        <v>19.17547288207947</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="Q14" t="n">
         <v>102.3405507558715</v>
@@ -35734,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>56.26865165572623</v>
+        <v>56.26865165572626</v>
       </c>
       <c r="N15" t="n">
         <v>13.41098726178413</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>126.6324877911279</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>126.6324877911279</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>76.33744817292276</v>
       </c>
       <c r="K17" t="n">
-        <v>236.3744951042129</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>246.9381756703013</v>
+        <v>346.0481371244803</v>
       </c>
       <c r="M17" t="n">
-        <v>401.8195172452717</v>
+        <v>136.7805253381497</v>
       </c>
       <c r="N17" t="n">
         <v>393.5415816228507</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>325.9660773842331</v>
       </c>
       <c r="P17" t="n">
         <v>240.1495733258758</v>
@@ -35965,16 +35965,16 @@
         <v>51.83638472044065</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>216.4964793952271</v>
       </c>
       <c r="L18" t="n">
         <v>353.1308765858295</v>
       </c>
       <c r="M18" t="n">
-        <v>132.3160829606991</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>409.4265956089642</v>
+        <v>325.2461991744362</v>
       </c>
       <c r="O18" t="n">
         <v>383.6865149977952</v>
@@ -36135,10 +36135,10 @@
         <v>393.5415816228507</v>
       </c>
       <c r="O20" t="n">
-        <v>3.230589301692403</v>
+        <v>243.3801626275681</v>
       </c>
       <c r="P20" t="n">
-        <v>240.1495733258758</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.83638472044065</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>216.4964793952271</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>353.1308765858295</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.4265956089642</v>
       </c>
       <c r="N21" t="n">
         <v>409.4265956089642</v>
       </c>
       <c r="O21" t="n">
-        <v>299.5061185632671</v>
+        <v>383.6865149977952</v>
       </c>
       <c r="P21" t="n">
-        <v>290.7674388506549</v>
+        <v>65.49331092283025</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>216.4964793952271</v>
+        <v>137.6478475447007</v>
       </c>
       <c r="L24" t="n">
         <v>353.1308765858295</v>
@@ -36454,10 +36454,10 @@
         <v>383.6865149977952</v>
       </c>
       <c r="P24" t="n">
-        <v>70.77854450562744</v>
+        <v>290.7674388506549</v>
       </c>
       <c r="Q24" t="n">
-        <v>141.1402624945011</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.83638472044065</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.6478475447002</v>
       </c>
       <c r="L27" t="n">
-        <v>297.802076915588</v>
+        <v>353.1308765858295</v>
       </c>
       <c r="M27" t="n">
         <v>464.5913411514007</v>
@@ -36694,7 +36694,7 @@
         <v>290.7674388506549</v>
       </c>
       <c r="Q27" t="n">
-        <v>141.1402624945011</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.83638472044065</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.6478475447002</v>
       </c>
       <c r="L30" t="n">
         <v>353.1308765858295</v>
       </c>
       <c r="M30" t="n">
-        <v>409.2625414811596</v>
+        <v>464.5913411514007</v>
       </c>
       <c r="N30" t="n">
         <v>492.7533616053377</v>
@@ -36931,7 +36931,7 @@
         <v>290.7674388506549</v>
       </c>
       <c r="Q30" t="n">
-        <v>141.1402624945011</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>216.4964793952271</v>
+        <v>137.6478475447002</v>
       </c>
       <c r="L33" t="n">
         <v>353.1308765858295</v>
@@ -37159,7 +37159,7 @@
         <v>464.5913411514007</v>
       </c>
       <c r="N33" t="n">
-        <v>272.7644672603097</v>
+        <v>492.7533616053377</v>
       </c>
       <c r="O33" t="n">
         <v>383.6865149977952</v>
@@ -37168,7 +37168,7 @@
         <v>290.7674388506549</v>
       </c>
       <c r="Q33" t="n">
-        <v>141.1402624945011</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>353.1308765858295</v>
       </c>
       <c r="M36" t="n">
-        <v>363.6715966330927</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>13.41098726178413</v>
+        <v>377.0825838948768</v>
       </c>
       <c r="O36" t="n">
         <v>383.6865149977952</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>76.33744817292276</v>
       </c>
       <c r="K38" t="n">
         <v>236.3744951042129</v>
       </c>
       <c r="L38" t="n">
-        <v>314.5136799089189</v>
+        <v>346.0481371244803</v>
       </c>
       <c r="M38" t="n">
         <v>401.8195172452717</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>320.4347227516204</v>
       </c>
       <c r="O38" t="n">
-        <v>325.9660773842331</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>240.1495733258758</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.3405507558715</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.83638472044065</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>353.1308765858295</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>43.01220518663856</v>
+        <v>409.4265956089642</v>
       </c>
       <c r="N39" t="n">
         <v>409.4265956089642</v>
@@ -37639,7 +37639,7 @@
         <v>383.6865149977952</v>
       </c>
       <c r="P39" t="n">
-        <v>290.7674388506549</v>
+        <v>225.6475402937183</v>
       </c>
       <c r="Q39" t="n">
         <v>141.1402624945011</v>
@@ -37782,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>121.5160236379511</v>
+        <v>19.17547288207948</v>
       </c>
       <c r="L41" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>126.6324877911279</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>102.3405507558715</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>121.5160236379511</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="N42" t="n">
+        <v>121.516023637951</v>
+      </c>
+      <c r="O42" t="n">
         <v>126.6324877911279</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
       <c r="P42" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>121.5160236379511</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>126.6324877911279</v>
       </c>
       <c r="M44" t="n">
-        <v>19.1754728820795</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>126.6324877911279</v>
@@ -38034,10 +38034,10 @@
         <v>126.6324877911279</v>
       </c>
       <c r="P44" t="n">
-        <v>126.6324877911279</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>102.3405507558715</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>126.6324877911279</v>
-      </c>
-      <c r="M45" t="n">
-        <v>121.516023637951</v>
       </c>
       <c r="N45" t="n">
         <v>126.6324877911279</v>
@@ -38113,7 +38113,7 @@
         <v>126.6324877911279</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>121.516023637951</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
